--- a/results/mp/deberta/corona/confidence/84/stop-words-topk-masking-0.15/homogenity_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-topk-masking-0.15/homogenity_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="1025">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="1025">
   <si>
     <t>anchor score</t>
   </si>
@@ -469,472 +469,472 @@
     <t>cut</t>
   </si>
   <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>take</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>shelves</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>working</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>dona</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>sales</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>latest</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>another</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>self</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>shops</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>buying</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>putting</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>recipe</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>certainly</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>tests</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>rt</t>
+  </si>
+  <si>
+    <t>protection</t>
+  </si>
+  <si>
+    <t>gas</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>amid</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>cal</t>
+  </si>
+  <si>
+    <t>roll</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>rolls</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>hazard</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>take</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>shelves</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>gold</t>
-  </si>
-  <si>
-    <t>working</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>making</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>dona</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>sales</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>latest</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>another</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>self</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>shops</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>part</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>buying</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>far</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>putting</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>recipe</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>deliver</t>
-  </si>
-  <si>
-    <t>certainly</t>
-  </si>
-  <si>
-    <t>may</t>
-  </si>
-  <si>
-    <t>tests</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>rt</t>
-  </si>
-  <si>
-    <t>protection</t>
-  </si>
-  <si>
-    <t>gas</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>amid</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>cal</t>
-  </si>
-  <si>
-    <t>roll</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>rolls</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>tech</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>non</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>hazard</t>
   </si>
   <si>
     <t>best</t>
@@ -3457,7 +3457,7 @@
         <v>87</v>
       </c>
       <c r="J1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3515,7 +3515,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.02849680032358652</v>
+        <v>0.02886943297490922</v>
       </c>
       <c r="C3">
         <v>193</v>
@@ -3536,28 +3536,28 @@
         <v>99</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>157</v>
+        <v>305</v>
       </c>
       <c r="K3">
-        <v>0.004455096636525115</v>
+        <v>0.007354640865740146</v>
       </c>
       <c r="L3">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="M3">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="N3">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>168</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3565,7 +3565,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.02228221951816149</v>
+        <v>0.02257358845931011</v>
       </c>
       <c r="C4">
         <v>118</v>
@@ -3586,28 +3586,28 @@
         <v>398</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="K4">
+        <v>0.006784885722489863</v>
+      </c>
+      <c r="L4">
+        <v>160</v>
+      </c>
+      <c r="M4">
+        <v>160</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>79</v>
-      </c>
-      <c r="K4">
-        <v>0.004255204867661735</v>
-      </c>
-      <c r="L4">
-        <v>587</v>
-      </c>
-      <c r="M4">
-        <v>614</v>
-      </c>
-      <c r="N4">
-        <v>0.96</v>
-      </c>
-      <c r="O4">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P4" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>2493</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3615,7 +3615,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.01104629007934513</v>
+        <v>0.01119073465953679</v>
       </c>
       <c r="C5">
         <v>29</v>
@@ -3636,28 +3636,28 @@
         <v>46</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>307</v>
+        <v>155</v>
       </c>
       <c r="K5">
-        <v>0.003977991865170928</v>
+        <v>0.004455096636525115</v>
       </c>
       <c r="L5">
-        <v>55</v>
+        <v>213</v>
       </c>
       <c r="M5">
-        <v>55</v>
+        <v>215</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3665,7 +3665,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.009621189867225457</v>
+        <v>0.009746999412451343</v>
       </c>
       <c r="C6">
         <v>22</v>
@@ -3686,28 +3686,28 @@
         <v>14</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>308</v>
+        <v>79</v>
       </c>
       <c r="K6">
-        <v>0.00363798967176014</v>
+        <v>0.004255204867661735</v>
       </c>
       <c r="L6">
-        <v>46</v>
+        <v>587</v>
       </c>
       <c r="M6">
-        <v>46</v>
+        <v>614</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>184</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3715,7 +3715,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.009399983519534</v>
+        <v>0.009522900504651604</v>
       </c>
       <c r="C7">
         <v>21</v>
@@ -3736,28 +3736,28 @@
         <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>102</v>
+        <v>307</v>
       </c>
       <c r="K7">
-        <v>0.003483063928866276</v>
+        <v>0.003977991865170928</v>
       </c>
       <c r="L7">
-        <v>347</v>
+        <v>55</v>
       </c>
       <c r="M7">
-        <v>361</v>
+        <v>55</v>
       </c>
       <c r="N7">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>2840</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3765,7 +3765,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.00820497828754323</v>
+        <v>0.008312269028209361</v>
       </c>
       <c r="C8">
         <v>16</v>
@@ -3786,28 +3786,28 @@
         <v>133</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>101</v>
+        <v>308</v>
       </c>
       <c r="K8">
-        <v>0.003387522229069235</v>
+        <v>0.00363798967176014</v>
       </c>
       <c r="L8">
-        <v>392</v>
+        <v>46</v>
       </c>
       <c r="M8">
-        <v>411</v>
+        <v>46</v>
       </c>
       <c r="N8">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>1732</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3815,7 +3815,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.007395867482451458</v>
+        <v>0.007492578049165018</v>
       </c>
       <c r="C9">
         <v>13</v>
@@ -3836,28 +3836,28 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>167</v>
+        <v>102</v>
       </c>
       <c r="K9">
-        <v>0.00335409737141997</v>
+        <v>0.003483063928866276</v>
       </c>
       <c r="L9">
-        <v>116</v>
+        <v>347</v>
       </c>
       <c r="M9">
-        <v>117</v>
+        <v>361</v>
       </c>
       <c r="N9">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="O9">
-        <v>0.01000000000000001</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P9" t="b">
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>369</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3865,7 +3865,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.007395867482451458</v>
+        <v>0.007492578049165018</v>
       </c>
       <c r="C10">
         <v>13</v>
@@ -3886,28 +3886,28 @@
         <v>64</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>309</v>
+        <v>101</v>
       </c>
       <c r="K10">
-        <v>0.003349768925260577</v>
+        <v>0.003387522229069235</v>
       </c>
       <c r="L10">
-        <v>39</v>
+        <v>392</v>
       </c>
       <c r="M10">
-        <v>39</v>
+        <v>411</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <v>24</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3915,7 +3915,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.007105719634512178</v>
+        <v>0.007198636141519894</v>
       </c>
       <c r="C11">
         <v>12</v>
@@ -3936,16 +3936,16 @@
         <v>39</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K11">
-        <v>0.003247677749567206</v>
+        <v>0.00335409737141997</v>
       </c>
       <c r="L11">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="M11">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="N11">
         <v>0.99</v>
@@ -3957,7 +3957,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>16</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3965,7 +3965,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.006803208598198419</v>
+        <v>0.006892169380765639</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -3986,16 +3986,16 @@
         <v>20</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K12">
-        <v>0.003173339722746406</v>
+        <v>0.003349768925260577</v>
       </c>
       <c r="L12">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M12">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -4007,7 +4007,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>130</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4015,7 +4015,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.006486604885216141</v>
+        <v>0.006571425663303996</v>
       </c>
       <c r="C13">
         <v>10</v>
@@ -4036,28 +4036,28 @@
         <v>5</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="K13">
-        <v>0.003153073837558605</v>
+        <v>0.003247677749567206</v>
       </c>
       <c r="L13">
-        <v>195</v>
+        <v>111</v>
       </c>
       <c r="M13">
-        <v>200</v>
+        <v>112</v>
       </c>
       <c r="N13">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="O13">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P13" t="b">
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>694</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4065,7 +4065,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.006486604885216141</v>
+        <v>0.006571425663303996</v>
       </c>
       <c r="C14">
         <v>10</v>
@@ -4086,16 +4086,16 @@
         <v>9</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K14">
-        <v>0.003081339249031117</v>
+        <v>0.003173339722746406</v>
       </c>
       <c r="L14">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M14">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -4107,7 +4107,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>110</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -4115,7 +4115,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.006486604885216141</v>
+        <v>0.006571425663303996</v>
       </c>
       <c r="C15">
         <v>10</v>
@@ -4136,28 +4136,28 @@
         <v>5</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>312</v>
+        <v>151</v>
       </c>
       <c r="K15">
-        <v>0.003034293139011021</v>
+        <v>0.003153073837558605</v>
       </c>
       <c r="L15">
-        <v>32</v>
+        <v>195</v>
       </c>
       <c r="M15">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15">
-        <v>83</v>
+        <v>694</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -4165,7 +4165,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.006153733715657423</v>
+        <v>0.006234201771157021</v>
       </c>
       <c r="C16">
         <v>9</v>
@@ -4186,16 +4186,16 @@
         <v>17</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K16">
-        <v>0.002986506008579099</v>
+        <v>0.003081339249031117</v>
       </c>
       <c r="L16">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M16">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -4207,7 +4207,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>275</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -4215,7 +4215,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.006153733715657423</v>
+        <v>0.006234201771157021</v>
       </c>
       <c r="C17">
         <v>9</v>
@@ -4236,28 +4236,28 @@
         <v>16</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>153</v>
+        <v>312</v>
       </c>
       <c r="K17">
-        <v>0.002981865750495506</v>
+        <v>0.003034293139011021</v>
       </c>
       <c r="L17">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="M17">
-        <v>188</v>
+        <v>32</v>
       </c>
       <c r="N17">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>713</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -4265,7 +4265,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.006153733715657423</v>
+        <v>0.006234201771157021</v>
       </c>
       <c r="C18">
         <v>9</v>
@@ -4286,28 +4286,28 @@
         <v>3</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>171</v>
+        <v>313</v>
       </c>
       <c r="K18">
-        <v>0.002961523944584187</v>
+        <v>0.002986506008579099</v>
       </c>
       <c r="L18">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="M18">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="N18">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>43</v>
+        <v>275</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -4315,7 +4315,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.006153733715657423</v>
+        <v>0.006234201771157021</v>
       </c>
       <c r="C19">
         <v>9</v>
@@ -4336,28 +4336,28 @@
         <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>314</v>
+        <v>152</v>
       </c>
       <c r="K19">
-        <v>0.002681961568378136</v>
+        <v>0.002981865750495506</v>
       </c>
       <c r="L19">
-        <v>25</v>
+        <v>183</v>
       </c>
       <c r="M19">
-        <v>25</v>
+        <v>188</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19">
-        <v>57</v>
+        <v>713</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -4365,7 +4365,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.006153733715657423</v>
+        <v>0.006234201771157021</v>
       </c>
       <c r="C20">
         <v>9</v>
@@ -4386,28 +4386,28 @@
         <v>2</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>315</v>
+        <v>169</v>
       </c>
       <c r="K20">
-        <v>0.002681961568378136</v>
+        <v>0.002961523944584187</v>
       </c>
       <c r="L20">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="M20">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20">
-        <v>76</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -4415,7 +4415,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.005801795786610205</v>
+        <v>0.005877661796893753</v>
       </c>
       <c r="C21">
         <v>8</v>
@@ -4436,16 +4436,16 @@
         <v>11</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K21">
-        <v>0.002627774940912371</v>
+        <v>0.002681961568378136</v>
       </c>
       <c r="L21">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M21">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -4457,7 +4457,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>74</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -4465,7 +4465,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.005801795786610205</v>
+        <v>0.005877661796893753</v>
       </c>
       <c r="C22">
         <v>8</v>
@@ -4486,16 +4486,16 @@
         <v>23</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K22">
-        <v>0.002627774940912371</v>
+        <v>0.002681961568378136</v>
       </c>
       <c r="L22">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M22">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -4507,7 +4507,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>23</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -4515,7 +4515,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.005801795786610205</v>
+        <v>0.005877661796893753</v>
       </c>
       <c r="C23">
         <v>8</v>
@@ -4536,16 +4536,16 @@
         <v>18</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K23">
-        <v>0.002572447166788217</v>
+        <v>0.002627774940912371</v>
       </c>
       <c r="L23">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M23">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -4557,7 +4557,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -4565,7 +4565,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.005801795786610205</v>
+        <v>0.005877661796893753</v>
       </c>
       <c r="C24">
         <v>8</v>
@@ -4586,28 +4586,28 @@
         <v>4</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>159</v>
+        <v>317</v>
       </c>
       <c r="K24">
-        <v>0.002532904116860033</v>
+        <v>0.002627774940912371</v>
       </c>
       <c r="L24">
-        <v>122</v>
+        <v>24</v>
       </c>
       <c r="M24">
-        <v>125</v>
+        <v>24</v>
       </c>
       <c r="N24">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -4615,7 +4615,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.005801795786610205</v>
+        <v>0.005877661796893753</v>
       </c>
       <c r="C25">
         <v>8</v>
@@ -4636,16 +4636,16 @@
         <v>2</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K25">
-        <v>0.002515902961512314</v>
+        <v>0.002572447166788217</v>
       </c>
       <c r="L25">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M25">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -4657,7 +4657,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>14</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -4665,7 +4665,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.005427083015381</v>
+        <v>0.005498049169826627</v>
       </c>
       <c r="C26">
         <v>7</v>
@@ -4686,16 +4686,16 @@
         <v>17</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="K26">
-        <v>0.002505839922274273</v>
+        <v>0.002532904116860033</v>
       </c>
       <c r="L26">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="M26">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="N26">
         <v>0.98</v>
@@ -4707,7 +4707,7 @@
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>463</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -4715,7 +4715,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.005427083015381</v>
+        <v>0.005498049169826627</v>
       </c>
       <c r="C27">
         <v>7</v>
@@ -4736,16 +4736,16 @@
         <v>1</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K27">
-        <v>0.002458058379611058</v>
+        <v>0.002515902961512314</v>
       </c>
       <c r="L27">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M27">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -4765,7 +4765,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.005427083015381</v>
+        <v>0.005498049169826627</v>
       </c>
       <c r="C28">
         <v>7</v>
@@ -4786,28 +4786,28 @@
         <v>12</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="K28">
-        <v>0.002430193969654439</v>
+        <v>0.002505839922274273</v>
       </c>
       <c r="L28">
-        <v>146</v>
+        <v>102</v>
       </c>
       <c r="M28">
-        <v>151</v>
+        <v>104</v>
       </c>
       <c r="N28">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="O28">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P28" t="b">
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>144</v>
+        <v>463</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -4815,7 +4815,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.005427083015381</v>
+        <v>0.005498049169826627</v>
       </c>
       <c r="C29">
         <v>7</v>
@@ -4836,16 +4836,16 @@
         <v>3</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K29">
-        <v>0.002275719854258266</v>
+        <v>0.002458058379611058</v>
       </c>
       <c r="L29">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M29">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -4857,7 +4857,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -4865,7 +4865,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.005024502538773957</v>
+        <v>0.005090204430963281</v>
       </c>
       <c r="C30">
         <v>6</v>
@@ -4886,28 +4886,28 @@
         <v>21</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>322</v>
+        <v>153</v>
       </c>
       <c r="K30">
-        <v>0.002275719854258266</v>
+        <v>0.002430193969654439</v>
       </c>
       <c r="L30">
-        <v>18</v>
+        <v>146</v>
       </c>
       <c r="M30">
-        <v>18</v>
+        <v>151</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30">
-        <v>207</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -4915,7 +4915,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.005024502538773957</v>
+        <v>0.005090204430963281</v>
       </c>
       <c r="C31">
         <v>6</v>
@@ -4936,7 +4936,7 @@
         <v>74</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="K31">
         <v>0.002275719854258266</v>
@@ -4957,7 +4957,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>154</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -4965,7 +4965,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.005024502538773957</v>
+        <v>0.005090204430963281</v>
       </c>
       <c r="C32">
         <v>6</v>
@@ -4986,7 +4986,7 @@
         <v>6</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="K32">
         <v>0.002275719854258266</v>
@@ -5007,7 +5007,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>46</v>
+        <v>207</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -5015,7 +5015,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.005024502538773957</v>
+        <v>0.005090204430963281</v>
       </c>
       <c r="C33">
         <v>6</v>
@@ -5036,7 +5036,7 @@
         <v>1</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K33">
         <v>0.002275719854258266</v>
@@ -5057,7 +5057,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>98</v>
+        <v>154</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -5065,7 +5065,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.005024502538773957</v>
+        <v>0.005090204430963281</v>
       </c>
       <c r="C34">
         <v>6</v>
@@ -5086,16 +5086,16 @@
         <v>24</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="K34">
-        <v>0.002211602166054051</v>
+        <v>0.002275719854258266</v>
       </c>
       <c r="L34">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M34">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -5107,7 +5107,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -5115,7 +5115,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.005024502538773957</v>
+        <v>0.005090204430963281</v>
       </c>
       <c r="C35">
         <v>6</v>
@@ -5136,28 +5136,28 @@
         <v>7</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>161</v>
+        <v>325</v>
       </c>
       <c r="K35">
-        <v>0.002181933654432412</v>
+        <v>0.002275719854258266</v>
       </c>
       <c r="L35">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="M35">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="N35">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>14</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -5165,7 +5165,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.005024502538773957</v>
+        <v>0.005090204430963281</v>
       </c>
       <c r="C36">
         <v>6</v>
@@ -5186,16 +5186,16 @@
         <v>8</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K36">
-        <v>0.002145569254702509</v>
+        <v>0.002211602166054051</v>
       </c>
       <c r="L36">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M36">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -5207,7 +5207,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -5215,7 +5215,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.00458672230121412</v>
+        <v>0.004646699648585562</v>
       </c>
       <c r="C37">
         <v>5</v>
@@ -5236,28 +5236,28 @@
         <v>25</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>328</v>
+        <v>159</v>
       </c>
       <c r="K37">
-        <v>0.002145569254702509</v>
+        <v>0.002181933654432412</v>
       </c>
       <c r="L37">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="M37">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>108</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -5265,7 +5265,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.00458672230121412</v>
+        <v>0.004646699648585562</v>
       </c>
       <c r="C38">
         <v>5</v>
@@ -5286,28 +5286,28 @@
         <v>16</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>175</v>
+        <v>327</v>
       </c>
       <c r="K38">
-        <v>0.002131587288870201</v>
+        <v>0.002145569254702509</v>
       </c>
       <c r="L38">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="M38">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="N38">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>94</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -5315,7 +5315,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.00458672230121412</v>
+        <v>0.004646699648585562</v>
       </c>
       <c r="C39">
         <v>5</v>
@@ -5336,28 +5336,28 @@
         <v>25</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>154</v>
+        <v>328</v>
       </c>
       <c r="K39">
-        <v>0.002130160767618283</v>
+        <v>0.002145569254702509</v>
       </c>
       <c r="L39">
-        <v>160</v>
+        <v>16</v>
       </c>
       <c r="M39">
-        <v>168</v>
+        <v>16</v>
       </c>
       <c r="N39">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>71</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -5365,7 +5365,7 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.00458672230121412</v>
+        <v>0.004646699648585562</v>
       </c>
       <c r="C40">
         <v>5</v>
@@ -5386,16 +5386,16 @@
         <v>29</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K40">
-        <v>0.002078104815241946</v>
+        <v>0.002131587288870201</v>
       </c>
       <c r="L40">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M40">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N40">
         <v>0.98</v>
@@ -5407,7 +5407,7 @@
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>245</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -5415,7 +5415,7 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.00458672230121412</v>
+        <v>0.004646699648585562</v>
       </c>
       <c r="C41">
         <v>5</v>
@@ -5436,28 +5436,28 @@
         <v>5</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>329</v>
+        <v>174</v>
       </c>
       <c r="K41">
-        <v>0.002077438497899369</v>
+        <v>0.002078104815241946</v>
       </c>
       <c r="L41">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="M41">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="N41">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41">
-        <v>98</v>
+        <v>245</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -5465,7 +5465,7 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.00458672230121412</v>
+        <v>0.004646699648585562</v>
       </c>
       <c r="C42">
         <v>5</v>
@@ -5486,7 +5486,7 @@
         <v>11</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K42">
         <v>0.002077438497899369</v>
@@ -5507,7 +5507,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>61</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -5515,7 +5515,7 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.00458672230121412</v>
+        <v>0.004646699648585562</v>
       </c>
       <c r="C43">
         <v>5</v>
@@ -5536,28 +5536,28 @@
         <v>15</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>151</v>
+        <v>330</v>
       </c>
       <c r="K43">
-        <v>0.002020360756604726</v>
+        <v>0.002077438497899369</v>
       </c>
       <c r="L43">
-        <v>188</v>
+        <v>15</v>
       </c>
       <c r="M43">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c r="N43">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>140</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -5565,7 +5565,7 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.00458672230121412</v>
+        <v>0.004646699648585562</v>
       </c>
       <c r="C44">
         <v>5</v>
@@ -5586,7 +5586,7 @@
         <v>2</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K44">
         <v>0.002008673821559001</v>
@@ -5615,7 +5615,7 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.00458672230121412</v>
+        <v>0.004646699648585562</v>
       </c>
       <c r="C45">
         <v>5</v>
@@ -5665,7 +5665,7 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.004102489143771615</v>
+        <v>0.00415613451410468</v>
       </c>
       <c r="C46">
         <v>4</v>
@@ -5715,7 +5715,7 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.004102489143771615</v>
+        <v>0.00415613451410468</v>
       </c>
       <c r="C47">
         <v>4</v>
@@ -5765,7 +5765,7 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.004102489143771615</v>
+        <v>0.00415613451410468</v>
       </c>
       <c r="C48">
         <v>4</v>
@@ -5815,7 +5815,7 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.004102489143771615</v>
+        <v>0.00415613451410468</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -5865,7 +5865,7 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.004102489143771615</v>
+        <v>0.00415613451410468</v>
       </c>
       <c r="C50">
         <v>4</v>
@@ -5915,7 +5915,7 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.004102489143771615</v>
+        <v>0.00415613451410468</v>
       </c>
       <c r="C51">
         <v>4</v>
@@ -5965,7 +5965,7 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.004102489143771615</v>
+        <v>0.00415613451410468</v>
       </c>
       <c r="C52">
         <v>4</v>
@@ -6015,7 +6015,7 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.004102489143771615</v>
+        <v>0.00415613451410468</v>
       </c>
       <c r="C53">
         <v>4</v>
@@ -6065,7 +6065,7 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.004102489143771615</v>
+        <v>0.00415613451410468</v>
       </c>
       <c r="C54">
         <v>4</v>
@@ -6115,7 +6115,7 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.004102489143771615</v>
+        <v>0.00415613451410468</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -6165,7 +6165,7 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.004102489143771615</v>
+        <v>0.00415613451410468</v>
       </c>
       <c r="C56">
         <v>4</v>
@@ -6215,7 +6215,7 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.003552859817256089</v>
+        <v>0.003599318070759947</v>
       </c>
       <c r="C57">
         <v>3</v>
@@ -6265,7 +6265,7 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.003552859817256089</v>
+        <v>0.003599318070759947</v>
       </c>
       <c r="C58">
         <v>3</v>
@@ -6315,7 +6315,7 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.003552859817256089</v>
+        <v>0.003599318070759947</v>
       </c>
       <c r="C59">
         <v>3</v>
@@ -6365,7 +6365,7 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.003552859817256089</v>
+        <v>0.003599318070759947</v>
       </c>
       <c r="C60">
         <v>3</v>
@@ -6415,7 +6415,7 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.003552859817256089</v>
+        <v>0.003599318070759947</v>
       </c>
       <c r="C61">
         <v>3</v>
@@ -6465,7 +6465,7 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.003552859817256089</v>
+        <v>0.003599318070759947</v>
       </c>
       <c r="C62">
         <v>3</v>
@@ -6515,7 +6515,7 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.003552859817256089</v>
+        <v>0.003599318070759947</v>
       </c>
       <c r="C63">
         <v>3</v>
@@ -6536,7 +6536,7 @@
         <v>6</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K63">
         <v>0.001800645653235568</v>
@@ -6565,7 +6565,7 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.003552859817256089</v>
+        <v>0.003599318070759947</v>
       </c>
       <c r="C64">
         <v>3</v>
@@ -6586,7 +6586,7 @@
         <v>3</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K64">
         <v>0.001800219174641383</v>
@@ -6615,7 +6615,7 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.003552859817256089</v>
+        <v>0.003599318070759947</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -6665,7 +6665,7 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.003552859817256089</v>
+        <v>0.003599318070759947</v>
       </c>
       <c r="C66">
         <v>3</v>
@@ -6715,7 +6715,7 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.003552859817256089</v>
+        <v>0.003599318070759947</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -6765,7 +6765,7 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.003552859817256089</v>
+        <v>0.003599318070759947</v>
       </c>
       <c r="C68">
         <v>3</v>
@@ -6815,7 +6815,7 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.003552859817256089</v>
+        <v>0.003599318070759947</v>
       </c>
       <c r="C69">
         <v>3</v>
@@ -6865,7 +6865,7 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.003552859817256089</v>
+        <v>0.003599318070759947</v>
       </c>
       <c r="C70">
         <v>3</v>
@@ -6915,7 +6915,7 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.003552859817256089</v>
+        <v>0.003599318070759947</v>
       </c>
       <c r="C71">
         <v>3</v>
@@ -6965,7 +6965,7 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.003552859817256089</v>
+        <v>0.003599318070759947</v>
       </c>
       <c r="C72">
         <v>3</v>
@@ -6986,7 +6986,7 @@
         <v>5</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K72">
         <v>0.001731373287302074</v>
@@ -7015,7 +7015,7 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.003552859817256089</v>
+        <v>0.003599318070759947</v>
       </c>
       <c r="C73">
         <v>3</v>
@@ -7036,7 +7036,7 @@
         <v>249</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K73">
         <v>0.001719066210322862</v>
@@ -7065,7 +7065,7 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.003489941960262177</v>
+        <v>0.003535577481122337</v>
       </c>
       <c r="C74">
         <v>27</v>
@@ -7086,7 +7086,7 @@
         <v>2493</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K74">
         <v>0.001718110691213941</v>
@@ -7115,7 +7115,7 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.002900897893305103</v>
+        <v>0.002938830898446876</v>
       </c>
       <c r="C75">
         <v>2</v>
@@ -7165,7 +7165,7 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.002900897893305103</v>
+        <v>0.002938830898446876</v>
       </c>
       <c r="C76">
         <v>2</v>
@@ -7215,7 +7215,7 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.002900897893305103</v>
+        <v>0.002938830898446876</v>
       </c>
       <c r="C77">
         <v>2</v>
@@ -7265,7 +7265,7 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.002900897893305103</v>
+        <v>0.002938830898446876</v>
       </c>
       <c r="C78">
         <v>2</v>
@@ -7315,7 +7315,7 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.002900897893305103</v>
+        <v>0.002938830898446876</v>
       </c>
       <c r="C79">
         <v>2</v>
@@ -7365,7 +7365,7 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.002900897893305103</v>
+        <v>0.002938830898446876</v>
       </c>
       <c r="C80">
         <v>2</v>
@@ -7386,7 +7386,7 @@
         <v>7</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K80">
         <v>0.001695560539282811</v>
@@ -7415,7 +7415,7 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.002900897893305103</v>
+        <v>0.002938830898446876</v>
       </c>
       <c r="C81">
         <v>2</v>
@@ -7465,7 +7465,7 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.002900897893305103</v>
+        <v>0.002938830898446876</v>
       </c>
       <c r="C82">
         <v>2</v>
@@ -7515,7 +7515,7 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.002900897893305103</v>
+        <v>0.002938830898446876</v>
       </c>
       <c r="C83">
         <v>2</v>
@@ -7565,7 +7565,7 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.002900897893305103</v>
+        <v>0.002938830898446876</v>
       </c>
       <c r="C84">
         <v>2</v>
@@ -7615,7 +7615,7 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.002900897893305103</v>
+        <v>0.002938830898446876</v>
       </c>
       <c r="C85">
         <v>2</v>
@@ -7665,7 +7665,7 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.002900897893305103</v>
+        <v>0.002938830898446876</v>
       </c>
       <c r="C86">
         <v>2</v>
@@ -7686,7 +7686,7 @@
         <v>11</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K86">
         <v>0.001595085997957896</v>
@@ -7715,7 +7715,7 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.002900897893305103</v>
+        <v>0.002938830898446876</v>
       </c>
       <c r="C87">
         <v>2</v>
@@ -7765,7 +7765,7 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.002900897893305103</v>
+        <v>0.002938830898446876</v>
       </c>
       <c r="C88">
         <v>2</v>
@@ -7815,7 +7815,7 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.002900897893305103</v>
+        <v>0.002938830898446876</v>
       </c>
       <c r="C89">
         <v>2</v>
@@ -7865,7 +7865,7 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.002900897893305103</v>
+        <v>0.002938830898446876</v>
       </c>
       <c r="C90">
         <v>2</v>
@@ -7915,7 +7915,7 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.002900897893305103</v>
+        <v>0.002938830898446876</v>
       </c>
       <c r="C91">
         <v>2</v>
@@ -7965,7 +7965,7 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.002900897893305103</v>
+        <v>0.002938830898446876</v>
       </c>
       <c r="C92">
         <v>2</v>
@@ -8015,7 +8015,7 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.002900897893305103</v>
+        <v>0.002938830898446876</v>
       </c>
       <c r="C93">
         <v>2</v>
@@ -8065,7 +8065,7 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.002900897893305103</v>
+        <v>0.002938830898446876</v>
       </c>
       <c r="C94">
         <v>2</v>
@@ -8115,7 +8115,7 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.002900897893305103</v>
+        <v>0.002938830898446876</v>
       </c>
       <c r="C95">
         <v>2</v>
@@ -8165,7 +8165,7 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.002852008526693605</v>
+        <v>0.002889302239911547</v>
       </c>
       <c r="C96">
         <v>19</v>
@@ -8215,7 +8215,7 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.00267544252053423</v>
+        <v>0.002710427404049835</v>
       </c>
       <c r="C97">
         <v>14</v>
@@ -8265,7 +8265,7 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.002051244571885808</v>
+        <v>0.00207806725705234</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -8286,7 +8286,7 @@
         <v>40</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K98">
         <v>0.001472743098991408</v>
@@ -8315,7 +8315,7 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.002051244571885808</v>
+        <v>0.00207806725705234</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -8336,7 +8336,7 @@
         <v>11</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K99">
         <v>0.001448719287404146</v>
@@ -8365,7 +8365,7 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.002051244571885808</v>
+        <v>0.00207806725705234</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -8415,7 +8415,7 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.002051244571885808</v>
+        <v>0.00207806725705234</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -8465,7 +8465,7 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.002051244571885808</v>
+        <v>0.00207806725705234</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -8515,7 +8515,7 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.002051244571885808</v>
+        <v>0.00207806725705234</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -8565,7 +8565,7 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.002051244571885808</v>
+        <v>0.00207806725705234</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -8615,7 +8615,7 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.002051244571885808</v>
+        <v>0.00207806725705234</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -8665,7 +8665,7 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.002051244571885808</v>
+        <v>0.00207806725705234</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -8715,7 +8715,7 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.002051244571885808</v>
+        <v>0.00207806725705234</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -8765,7 +8765,7 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.002051244571885808</v>
+        <v>0.00207806725705234</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -8815,7 +8815,7 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.002051244571885808</v>
+        <v>0.00207806725705234</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -8865,7 +8865,7 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.002051244571885808</v>
+        <v>0.00207806725705234</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -8915,7 +8915,7 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.002051244571885808</v>
+        <v>0.00207806725705234</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -8936,7 +8936,7 @@
         <v>15</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K111">
         <v>0.001378384073971943</v>
@@ -8965,7 +8965,7 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.002051244571885808</v>
+        <v>0.00207806725705234</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -8986,7 +8986,7 @@
         <v>14</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K112">
         <v>0.001332510996486708</v>
@@ -9015,7 +9015,7 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.002051244571885808</v>
+        <v>0.00207806725705234</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -9065,7 +9065,7 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.002051244571885808</v>
+        <v>0.00207806725705234</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -9115,7 +9115,7 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.002051244571885808</v>
+        <v>0.00207806725705234</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -9165,7 +9165,7 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.002051244571885808</v>
+        <v>0.00207806725705234</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -9215,7 +9215,7 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.002051244571885808</v>
+        <v>0.00207806725705234</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -9265,7 +9265,7 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.002051244571885808</v>
+        <v>0.00207806725705234</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -9315,7 +9315,7 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.002051244571885808</v>
+        <v>0.00207806725705234</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -9365,7 +9365,7 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.002051244571885808</v>
+        <v>0.00207806725705234</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -9415,7 +9415,7 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.002051244571885808</v>
+        <v>0.00207806725705234</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -9465,7 +9465,7 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.002051244571885808</v>
+        <v>0.00207806725705234</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -9515,7 +9515,7 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.002051244571885808</v>
+        <v>0.00207806725705234</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -9565,7 +9565,7 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.002051244571885808</v>
+        <v>0.00207806725705234</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -9615,7 +9615,7 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.002051244571885808</v>
+        <v>0.00207806725705234</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -9665,7 +9665,7 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.002051244571885808</v>
+        <v>0.00207806725705234</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -9715,7 +9715,7 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.002051244571885808</v>
+        <v>0.00207806725705234</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -9765,7 +9765,7 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.002051244571885808</v>
+        <v>0.00207806725705234</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -9815,7 +9815,7 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.002051244571885808</v>
+        <v>0.00207806725705234</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -9865,7 +9865,7 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.002051244571885808</v>
+        <v>0.00207806725705234</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -9915,7 +9915,7 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.002051244571885808</v>
+        <v>0.00207806725705234</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -9936,7 +9936,7 @@
         <v>15</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K131">
         <v>0.001224265792216541</v>
@@ -9965,7 +9965,7 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.002051244571885808</v>
+        <v>0.00207806725705234</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -10015,7 +10015,7 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.002051244571885808</v>
+        <v>0.00207806725705234</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -10065,7 +10065,7 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.002051244571885808</v>
+        <v>0.00207806725705234</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -10115,7 +10115,7 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.002051244571885808</v>
+        <v>0.00207806725705234</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -10165,7 +10165,7 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.002051244571885808</v>
+        <v>0.00207806725705234</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -10215,7 +10215,7 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.002051244571885808</v>
+        <v>0.00207806725705234</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -10265,7 +10265,7 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.002051244571885808</v>
+        <v>0.00207806725705234</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -10315,7 +10315,7 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.002051244571885808</v>
+        <v>0.00207806725705234</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -10365,7 +10365,7 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.002051244571885808</v>
+        <v>0.00207806725705234</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -10415,7 +10415,7 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.002051244571885808</v>
+        <v>0.00207806725705234</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -10465,7 +10465,7 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.002051244571885808</v>
+        <v>0.00207806725705234</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -10515,7 +10515,7 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.002051244571885808</v>
+        <v>0.00207806725705234</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -10565,7 +10565,7 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.002051244571885808</v>
+        <v>0.00207806725705234</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -10615,7 +10615,7 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.002051244571885808</v>
+        <v>0.00207806725705234</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -10665,25 +10665,25 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.001951980709741879</v>
+        <v>0.001956045221951901</v>
       </c>
       <c r="C146">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D146">
         <v>200</v>
       </c>
       <c r="E146">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F146">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G146" t="b">
         <v>1</v>
       </c>
       <c r="H146">
-        <v>140</v>
+        <v>694</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>420</v>
@@ -10715,13 +10715,13 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.001930797538085145</v>
+        <v>0.001909521697818546</v>
       </c>
       <c r="C147">
         <v>5</v>
       </c>
       <c r="D147">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="E147">
         <v>0.97</v>
@@ -10733,7 +10733,7 @@
         <v>1</v>
       </c>
       <c r="H147">
-        <v>694</v>
+        <v>713</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>421</v>
@@ -10765,13 +10765,13 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.001884874517056986</v>
+        <v>0.001742314563115534</v>
       </c>
       <c r="C148">
         <v>5</v>
       </c>
       <c r="D148">
-        <v>188</v>
+        <v>151</v>
       </c>
       <c r="E148">
         <v>0.97</v>
@@ -10783,7 +10783,7 @@
         <v>1</v>
       </c>
       <c r="H148">
-        <v>713</v>
+        <v>144</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>422</v>
@@ -10815,25 +10815,25 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.001821513032327801</v>
+        <v>0.001691523267502811</v>
       </c>
       <c r="C149">
         <v>8</v>
       </c>
       <c r="D149">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="E149">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F149">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G149" t="b">
         <v>1</v>
       </c>
       <c r="H149">
-        <v>71</v>
+        <v>274</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>423</v>
@@ -10865,25 +10865,25 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.001719825611023674</v>
+        <v>0.001672474013448669</v>
       </c>
       <c r="C150">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D150">
-        <v>151</v>
+        <v>215</v>
       </c>
       <c r="E150">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="F150">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G150" t="b">
         <v>1</v>
       </c>
       <c r="H150">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>424</v>
@@ -10915,25 +10915,25 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.001669689904842332</v>
+        <v>0.001541474239569992</v>
       </c>
       <c r="C151">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D151">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="E151">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F151">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G151" t="b">
         <v>1</v>
       </c>
       <c r="H151">
-        <v>274</v>
+        <v>749</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>425</v>
@@ -10965,25 +10965,25 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.001650886529328654</v>
+        <v>0.001538779937753274</v>
       </c>
       <c r="C152">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D152">
-        <v>215</v>
+        <v>125</v>
       </c>
       <c r="E152">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="F152">
-        <v>0.01000000000000001</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G152" t="b">
         <v>1</v>
       </c>
       <c r="H152">
-        <v>168</v>
+        <v>35</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>426</v>
@@ -11015,13 +11015,13 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.00152157763705148</v>
+        <v>0.001473713663675163</v>
       </c>
       <c r="C153">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D153">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="E153">
         <v>0.95</v>
@@ -11033,7 +11033,7 @@
         <v>1</v>
       </c>
       <c r="H153">
-        <v>749</v>
+        <v>543</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>427</v>
@@ -11065,25 +11065,25 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.00151891811197701</v>
+        <v>0.001442648769022533</v>
       </c>
       <c r="C154">
         <v>3</v>
       </c>
       <c r="D154">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="E154">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F154">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G154" t="b">
         <v>1</v>
       </c>
       <c r="H154">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>428</v>
@@ -11115,25 +11115,25 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.001454691681834957</v>
+        <v>0.00139863324873242</v>
       </c>
       <c r="C155">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D155">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="E155">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F155">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G155" t="b">
         <v>1</v>
       </c>
       <c r="H155">
-        <v>543</v>
+        <v>320</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>429</v>
@@ -11165,25 +11165,25 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.001424027757789112</v>
+        <v>0.001393995137093992</v>
       </c>
       <c r="C156">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D156">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E156">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="F156">
-        <v>0.03000000000000003</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G156" t="b">
         <v>1</v>
       </c>
       <c r="H156">
-        <v>14</v>
+        <v>1058</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>430</v>
@@ -11215,25 +11215,25 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.001380580368505912</v>
+        <v>0.001390218852763874</v>
       </c>
       <c r="C157">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D157">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E157">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F157">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G157" t="b">
         <v>1</v>
       </c>
       <c r="H157">
-        <v>320</v>
+        <v>15</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>431</v>
@@ -11265,25 +11265,25 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.001376002123364982</v>
+        <v>0.0013593938146006</v>
       </c>
       <c r="C158">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D158">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E158">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="F158">
-        <v>0.06999999999999995</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G158" t="b">
         <v>1</v>
       </c>
       <c r="H158">
-        <v>1058</v>
+        <v>463</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>432</v>
@@ -11315,25 +11315,25 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.00137227458148309</v>
+        <v>0.001279222026355438</v>
       </c>
       <c r="C159">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D159">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="E159">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="F159">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G159" t="b">
         <v>1</v>
       </c>
       <c r="H159">
-        <v>15</v>
+        <v>134</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>433</v>
@@ -11365,25 +11365,25 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.001341847417975265</v>
+        <v>0.001206489996119454</v>
       </c>
       <c r="C160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D160">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="E160">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="F160">
-        <v>0.02000000000000002</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G160" t="b">
         <v>1</v>
       </c>
       <c r="H160">
-        <v>463</v>
+        <v>369</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>434</v>
@@ -11415,25 +11415,25 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.001262710448323216</v>
+        <v>0.001194231422314462</v>
       </c>
       <c r="C161">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D161">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="E161">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="F161">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G161" t="b">
         <v>1</v>
       </c>
       <c r="H161">
-        <v>134</v>
+        <v>16</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>435</v>
@@ -11465,28 +11465,28 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.001190917207889112</v>
+        <v>0.00118387478149943</v>
       </c>
       <c r="C162">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D162">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="E162">
-        <v>0.99</v>
+        <v>0.92</v>
       </c>
       <c r="F162">
-        <v>0.01000000000000001</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G162" t="b">
         <v>1</v>
       </c>
       <c r="H162">
-        <v>369</v>
+        <v>28</v>
       </c>
       <c r="J162" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K162">
         <v>0.001182180805838373</v>
@@ -11515,28 +11515,28 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.001178816861814549</v>
+        <v>0.001182719597285766</v>
       </c>
       <c r="C163">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D163">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="E163">
-        <v>0.99</v>
+        <v>0.93</v>
       </c>
       <c r="F163">
-        <v>0.01000000000000001</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G163" t="b">
         <v>1</v>
       </c>
       <c r="H163">
-        <v>16</v>
+        <v>253</v>
       </c>
       <c r="J163" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K163">
         <v>0.001182180805838373</v>
@@ -11565,28 +11565,28 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.001168593899500548</v>
+        <v>0.001158988866508935</v>
       </c>
       <c r="C164">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D164">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="E164">
-        <v>0.92</v>
+        <v>0.99</v>
       </c>
       <c r="F164">
-        <v>0.07999999999999996</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G164" t="b">
         <v>1</v>
       </c>
       <c r="H164">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="J164" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K164">
         <v>0.001148418373802621</v>
@@ -11615,28 +11615,28 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.001167453625844937</v>
+        <v>0.001152255192113753</v>
       </c>
       <c r="C165">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D165">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E165">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="F165">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G165" t="b">
         <v>1</v>
       </c>
       <c r="H165">
-        <v>253</v>
+        <v>15</v>
       </c>
       <c r="J165" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K165">
         <v>0.00114536538527917</v>
@@ -11665,28 +11665,28 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.001144029199841561</v>
+        <v>0.001123828039117609</v>
       </c>
       <c r="C166">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D166">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="E166">
-        <v>0.99</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F166">
-        <v>0.01000000000000001</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G166" t="b">
         <v>1</v>
       </c>
       <c r="H166">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="J166" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K166">
         <v>0.001134081543577747</v>
@@ -11715,28 +11715,28 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.001137382440452477</v>
+        <v>0.001050488514886371</v>
       </c>
       <c r="C167">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D167">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E167">
-        <v>0.97</v>
+        <v>0.9</v>
       </c>
       <c r="F167">
-        <v>0.03000000000000003</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G167" t="b">
         <v>1</v>
       </c>
       <c r="H167">
-        <v>15</v>
+        <v>278</v>
       </c>
       <c r="J167" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K167">
         <v>0.001132811715127908</v>
@@ -11765,28 +11765,28 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.001109322211372008</v>
+        <v>0.001032262589716386</v>
       </c>
       <c r="C168">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D168">
         <v>65</v>
       </c>
       <c r="E168">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="F168">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G168" t="b">
         <v>1</v>
       </c>
       <c r="H168">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="J168" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K168">
         <v>0.001114329064992564</v>
@@ -11815,28 +11815,28 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.001036929318180763</v>
+        <v>0.001022465487044158</v>
       </c>
       <c r="C169">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D169">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E169">
-        <v>0.9</v>
+        <v>0.98</v>
       </c>
       <c r="F169">
-        <v>0.09999999999999998</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G169" t="b">
         <v>1</v>
       </c>
       <c r="H169">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="J169" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K169">
         <v>0.001114329064992564</v>
@@ -11865,25 +11865,25 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.001018938644420974</v>
+        <v>0.0009889830545716657</v>
       </c>
       <c r="C170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D170">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="E170">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="F170">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G170" t="b">
         <v>1</v>
       </c>
       <c r="H170">
-        <v>94</v>
+        <v>167</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>436</v>
@@ -11915,13 +11915,13 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.00100926799800257</v>
+        <v>0.0009673945551665136</v>
       </c>
       <c r="C171">
         <v>1</v>
       </c>
       <c r="D171">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E171">
         <v>0.98</v>
@@ -11933,7 +11933,7 @@
         <v>1</v>
       </c>
       <c r="H171">
-        <v>245</v>
+        <v>110</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>437</v>
@@ -11965,13 +11965,13 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.0009762177405435533</v>
+        <v>0.0009569778317159634</v>
       </c>
       <c r="C172">
         <v>2</v>
       </c>
       <c r="D172">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E172">
         <v>0.96</v>
@@ -11983,7 +11983,7 @@
         <v>1</v>
       </c>
       <c r="H172">
-        <v>167</v>
+        <v>114</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>438</v>
@@ -12015,13 +12015,13 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.0009549078950273919</v>
+        <v>0.0009212020576736426</v>
       </c>
       <c r="C173">
         <v>1</v>
       </c>
       <c r="D173">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E173">
         <v>0.98</v>
@@ -12033,7 +12033,7 @@
         <v>1</v>
       </c>
       <c r="H173">
-        <v>110</v>
+        <v>43</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>439</v>
@@ -12065,25 +12065,25 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.0009446256255954174</v>
+        <v>0.0009106050009477098</v>
       </c>
       <c r="C174">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D174">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E174">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="F174">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G174" t="b">
         <v>1</v>
       </c>
       <c r="H174">
-        <v>114</v>
+        <v>193</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>440</v>
@@ -12115,13 +12115,13 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.0009093116279082505</v>
+        <v>0.0008910706139306983</v>
       </c>
       <c r="C175">
         <v>1</v>
       </c>
       <c r="D175">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E175">
         <v>0.98</v>
@@ -12133,7 +12133,7 @@
         <v>1</v>
       </c>
       <c r="H175">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>441</v>
@@ -12165,25 +12165,25 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.0008988513528554261</v>
+        <v>0.0008662744427326602</v>
       </c>
       <c r="C176">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D176">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E176">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="F176">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G176" t="b">
         <v>1</v>
       </c>
       <c r="H176">
-        <v>193</v>
+        <v>228</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>442</v>
@@ -12215,25 +12215,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.0008795691062400788</v>
+        <v>0.0008316885762915528</v>
       </c>
       <c r="C177">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D177">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E177">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F177">
-        <v>0.02000000000000002</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G177" t="b">
         <v>1</v>
       </c>
       <c r="H177">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>443</v>
@@ -12265,13 +12265,13 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.0008550929920041643</v>
+        <v>0.000809628836760702</v>
       </c>
       <c r="C178">
         <v>1</v>
       </c>
       <c r="D178">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E178">
         <v>0.97</v>
@@ -12283,7 +12283,7 @@
         <v>1</v>
       </c>
       <c r="H178">
-        <v>228</v>
+        <v>25</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>444</v>
@@ -12315,25 +12315,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.0008209535431674983</v>
+        <v>0.000809628836760702</v>
       </c>
       <c r="C179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D179">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E179">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F179">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
       </c>
       <c r="H179">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>445</v>
@@ -12365,13 +12365,13 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.0007991785400648279</v>
+        <v>0.0007990911831889973</v>
       </c>
       <c r="C180">
         <v>1</v>
       </c>
       <c r="D180">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E180">
         <v>0.97</v>
@@ -12383,7 +12383,7 @@
         <v>1</v>
       </c>
       <c r="H180">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>446</v>
@@ -12415,13 +12415,13 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.0007991785400648279</v>
+        <v>0.0007881881197804286</v>
       </c>
       <c r="C181">
         <v>1</v>
       </c>
       <c r="D181">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E181">
         <v>0.97</v>
@@ -12433,7 +12433,7 @@
         <v>1</v>
       </c>
       <c r="H181">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>447</v>
@@ -12465,13 +12465,13 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.0007887769014191024</v>
+        <v>0.0007881881197804286</v>
       </c>
       <c r="C182">
         <v>1</v>
       </c>
       <c r="D182">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E182">
         <v>0.97</v>
@@ -12483,7 +12483,7 @@
         <v>1</v>
       </c>
       <c r="H182">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>448</v>
@@ -12515,25 +12515,25 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.0007780145694696173</v>
+        <v>0.000762363414321613</v>
       </c>
       <c r="C183">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D183">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E183">
-        <v>0.97</v>
+        <v>0.88</v>
       </c>
       <c r="F183">
-        <v>0.03000000000000003</v>
+        <v>0.12</v>
       </c>
       <c r="G183" t="b">
         <v>1</v>
       </c>
       <c r="H183">
-        <v>103</v>
+        <v>502</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>449</v>
@@ -12565,25 +12565,25 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.0007780145694696173</v>
+        <v>0.000754142460546592</v>
       </c>
       <c r="C184">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D184">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E184">
-        <v>0.97</v>
+        <v>0.91</v>
       </c>
       <c r="F184">
-        <v>0.03000000000000003</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G184" t="b">
         <v>1</v>
       </c>
       <c r="H184">
-        <v>102</v>
+        <v>36</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>450</v>
@@ -12615,25 +12615,25 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.0007525231967947574</v>
+        <v>0.0007530382381027053</v>
       </c>
       <c r="C185">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D185">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E185">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="F185">
-        <v>0.12</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G185" t="b">
         <v>1</v>
       </c>
       <c r="H185">
-        <v>502</v>
+        <v>332</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>451</v>
@@ -12665,25 +12665,25 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.0007444083551073638</v>
+        <v>0.0007272769462750253</v>
       </c>
       <c r="C186">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D186">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E186">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="F186">
-        <v>0.08999999999999997</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G186" t="b">
         <v>1</v>
       </c>
       <c r="H186">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>452</v>
@@ -12715,13 +12715,13 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.0007433183854316999</v>
+        <v>0.0007135926993220916</v>
       </c>
       <c r="C187">
         <v>1</v>
       </c>
       <c r="D187">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E187">
         <v>0.96</v>
@@ -12733,7 +12733,7 @@
         <v>1</v>
       </c>
       <c r="H187">
-        <v>332</v>
+        <v>160</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>453</v>
@@ -12765,13 +12765,13 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.0007178896078755536</v>
+        <v>0.0006993166243662102</v>
       </c>
       <c r="C188">
         <v>1</v>
       </c>
       <c r="D188">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E188">
         <v>0.96</v>
@@ -12783,7 +12783,7 @@
         <v>1</v>
       </c>
       <c r="H188">
-        <v>121</v>
+        <v>257</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>454</v>
@@ -12815,25 +12815,25 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.0007043819905511914</v>
+        <v>0.0006835104237855046</v>
       </c>
       <c r="C189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D189">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E189">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="F189">
-        <v>0.04000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G189" t="b">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>455</v>
@@ -12865,25 +12865,25 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.0006902901842529561</v>
+        <v>0.0006689069036393153</v>
       </c>
       <c r="C190">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D190">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E190">
-        <v>0.96</v>
+        <v>0.14</v>
       </c>
       <c r="F190">
-        <v>0.04000000000000004</v>
+        <v>0.86</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>257</v>
+        <v>48</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>456</v>
@@ -12915,25 +12915,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.0006746880024499955</v>
+        <v>0.0006687897102029867</v>
       </c>
       <c r="C191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D191">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E191">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="F191">
-        <v>0.07999999999999996</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G191" t="b">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>457</v>
@@ -12965,25 +12965,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.0006602729774652956</v>
+        <v>0.0006640783745930677</v>
       </c>
       <c r="C192">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D192">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E192">
-        <v>0.14</v>
+        <v>0.92</v>
       </c>
       <c r="F192">
-        <v>0.86</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>48</v>
+        <v>139</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>458</v>
@@ -13015,25 +13015,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.0006601572967050537</v>
+        <v>0.0006640783745930677</v>
       </c>
       <c r="C193">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D193">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E193">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="F193">
-        <v>0.05000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
       </c>
       <c r="H193">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>459</v>
@@ -13065,25 +13065,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.0006555067727321739</v>
+        <v>0.0006591650103587624</v>
       </c>
       <c r="C194">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D194">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E194">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="F194">
-        <v>0.07999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>460</v>
@@ -13115,13 +13115,13 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.0006555067727321739</v>
+        <v>0.0006439033178060616</v>
       </c>
       <c r="C195">
         <v>2</v>
       </c>
       <c r="D195">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E195">
         <v>0.92</v>
@@ -13133,7 +13133,7 @@
         <v>1</v>
       </c>
       <c r="H195">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>461</v>
@@ -13165,25 +13165,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.0006506568278224924</v>
+        <v>0.0006352315667993377</v>
       </c>
       <c r="C196">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D196">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E196">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="F196">
-        <v>0.09999999999999998</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
       </c>
       <c r="H196">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>462</v>
@@ -13215,25 +13215,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.000635592125801768</v>
+        <v>0.0006171353506593867</v>
       </c>
       <c r="C197">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D197">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E197">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="F197">
-        <v>0.07999999999999996</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>463</v>
@@ -13265,13 +13265,13 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.0006270323055548915</v>
+        <v>0.0006171353506593867</v>
       </c>
       <c r="C198">
         <v>1</v>
       </c>
       <c r="D198">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E198">
         <v>0.95</v>
@@ -13283,7 +13283,7 @@
         <v>1</v>
       </c>
       <c r="H198">
-        <v>41</v>
+        <v>118</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>464</v>
@@ -13315,25 +13315,25 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.000609169666603831</v>
+        <v>0.0005980437864930321</v>
       </c>
       <c r="C199">
         <v>1</v>
       </c>
       <c r="D199">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E199">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F199">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
       </c>
       <c r="H199">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>465</v>
@@ -13365,25 +13365,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.000609169666603831</v>
+        <v>0.0005980437864930321</v>
       </c>
       <c r="C200">
         <v>1</v>
       </c>
       <c r="D200">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E200">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F200">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G200" t="b">
         <v>1</v>
       </c>
       <c r="H200">
-        <v>118</v>
+        <v>55</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>466</v>
@@ -13415,7 +13415,7 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.0005903245270963668</v>
+        <v>0.0005980437864930321</v>
       </c>
       <c r="C201">
         <v>1</v>
@@ -13433,7 +13433,7 @@
         <v>1</v>
       </c>
       <c r="H201">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>467</v>
@@ -13465,25 +13465,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.0005903245270963668</v>
+        <v>0.0005783597880822139</v>
       </c>
       <c r="C202">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D202">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E202">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F202">
-        <v>0.06000000000000005</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G202" t="b">
         <v>1</v>
       </c>
       <c r="H202">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>468</v>
@@ -13515,13 +13515,13 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.0005903245270963668</v>
+        <v>0.0005778521211207376</v>
       </c>
       <c r="C203">
         <v>1</v>
       </c>
       <c r="D203">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E203">
         <v>0.9399999999999999</v>
@@ -13533,7 +13533,7 @@
         <v>1</v>
       </c>
       <c r="H203">
-        <v>30</v>
+        <v>210</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>469</v>
@@ -13565,25 +13565,25 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.0005708946001985858</v>
+        <v>0.0005778521211207376</v>
       </c>
       <c r="C204">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D204">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E204">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F204">
-        <v>0.09999999999999998</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
       </c>
       <c r="H204">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>470</v>
@@ -13615,7 +13615,7 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.0005703934859562434</v>
+        <v>0.0005778521211207376</v>
       </c>
       <c r="C205">
         <v>1</v>
@@ -13633,7 +13633,7 @@
         <v>1</v>
       </c>
       <c r="H205">
-        <v>210</v>
+        <v>111</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>471</v>
@@ -13665,25 +13665,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.0005703934859562434</v>
+        <v>0.0005228051620163297</v>
       </c>
       <c r="C206">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D206">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E206">
-        <v>0.9399999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="F206">
-        <v>0.06000000000000005</v>
+        <v>0.15</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>472</v>
@@ -13715,25 +13715,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.0005703934859562434</v>
+        <v>0.0005093532197213341</v>
       </c>
       <c r="C207">
         <v>1</v>
       </c>
       <c r="D207">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E207">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F207">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>473</v>
@@ -13765,25 +13765,25 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.0005160570463253615</v>
+        <v>0.0004833148556704217</v>
       </c>
       <c r="C208">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D208">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E208">
-        <v>0.85</v>
+        <v>0.92</v>
       </c>
       <c r="F208">
-        <v>0.15</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G208" t="b">
         <v>1</v>
       </c>
       <c r="H208">
-        <v>70</v>
+        <v>153</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>474</v>
@@ -13815,25 +13815,25 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.0005027787351829826</v>
+        <v>0.0004833148556704217</v>
       </c>
       <c r="C209">
         <v>1</v>
       </c>
       <c r="D209">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E209">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F209">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>475</v>
@@ -13865,25 +13865,25 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.0004770764617175982</v>
+        <v>0.0004766087360616963</v>
       </c>
       <c r="C210">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D210">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E210">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="F210">
-        <v>0.07999999999999996</v>
+        <v>0.12</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>476</v>
@@ -13915,13 +13915,13 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.0004770764617175982</v>
+        <v>0.0004553084024491827</v>
       </c>
       <c r="C211">
         <v>1</v>
       </c>
       <c r="D211">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E211">
         <v>0.92</v>
@@ -13933,7 +13933,7 @@
         <v>1</v>
       </c>
       <c r="H211">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>477</v>
@@ -13965,25 +13965,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.0004704569014511384</v>
+        <v>0.000425046051614485</v>
       </c>
       <c r="C212">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D212">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E212">
-        <v>0.88</v>
+        <v>0.91</v>
       </c>
       <c r="F212">
-        <v>0.12</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>121</v>
+        <v>38</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>478</v>
@@ -14015,25 +14015,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.0004494315022232033</v>
+        <v>0.000425046051614485</v>
       </c>
       <c r="C213">
         <v>1</v>
       </c>
       <c r="D213">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E213">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="F213">
-        <v>0.07999999999999996</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>479</v>
@@ -14065,25 +14065,25 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.0004195597631485839</v>
+        <v>0.0004179132912685617</v>
       </c>
       <c r="C214">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D214">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E214">
-        <v>0.91</v>
+        <v>0.87</v>
       </c>
       <c r="F214">
-        <v>0.08999999999999997</v>
+        <v>0.13</v>
       </c>
       <c r="G214" t="b">
         <v>1</v>
       </c>
       <c r="H214">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>480</v>
@@ -14115,25 +14115,25 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.0004195597631485839</v>
+        <v>0.000392176750250983</v>
       </c>
       <c r="C215">
         <v>1</v>
       </c>
       <c r="D215">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E215">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="F215">
-        <v>0.08999999999999997</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
       </c>
       <c r="H215">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>481</v>
@@ -14165,25 +14165,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.0004125190690168208</v>
+        <v>0.000392176750250983</v>
       </c>
       <c r="C216">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D216">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E216">
-        <v>0.87</v>
+        <v>0.9</v>
       </c>
       <c r="F216">
-        <v>0.13</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>482</v>
@@ -14215,28 +14215,28 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.0003871147227993127</v>
+        <v>0.0003861935808789578</v>
       </c>
       <c r="C217">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D217">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E217">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="F217">
-        <v>0.09999999999999998</v>
+        <v>0.14</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="J217" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K217">
         <v>0.001058569407871137</v>
@@ -14265,28 +14265,28 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.0003871147227993127</v>
+        <v>0.0003562688215240036</v>
       </c>
       <c r="C218">
         <v>1</v>
       </c>
       <c r="D218">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E218">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="F218">
-        <v>0.09999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="G218" t="b">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="J218" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K218">
         <v>0.001010001126305463</v>
@@ -14315,28 +14315,28 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.0003812087812782242</v>
+        <v>0.0003562688215240036</v>
       </c>
       <c r="C219">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D219">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E219">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="F219">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="J219" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K219">
         <v>0.0009386264149331622</v>
@@ -14365,7 +14365,7 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.0003516702762161174</v>
+        <v>0.0003562688215240036</v>
       </c>
       <c r="C220">
         <v>1</v>
@@ -14383,7 +14383,7 @@
         <v>1</v>
       </c>
       <c r="H220">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>483</v>
@@ -14415,7 +14415,7 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.0003516702762161174</v>
+        <v>0.0003562688215240036</v>
       </c>
       <c r="C221">
         <v>1</v>
@@ -14433,7 +14433,7 @@
         <v>1</v>
       </c>
       <c r="H221">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>484</v>
@@ -14465,7 +14465,7 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.0003516702762161174</v>
+        <v>0.0003562688215240036</v>
       </c>
       <c r="C222">
         <v>1</v>
@@ -14483,7 +14483,7 @@
         <v>1</v>
       </c>
       <c r="H222">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>485</v>
@@ -14515,25 +14515,25 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.0003516702762161174</v>
+        <v>0.0003562127644966736</v>
       </c>
       <c r="C223">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D223">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="E223">
-        <v>0.89</v>
+        <v>0.74</v>
       </c>
       <c r="F223">
-        <v>0.11</v>
+        <v>0.26</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>27</v>
+        <v>915</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>486</v>
@@ -14565,25 +14565,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.0003516702762161174</v>
+        <v>0.0003167888234243706</v>
       </c>
       <c r="C224">
         <v>1</v>
       </c>
       <c r="D224">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E224">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="F224">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>487</v>
@@ -14615,25 +14615,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.0003516149427457321</v>
+        <v>0.0003167888234243706</v>
       </c>
       <c r="C225">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D225">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="E225">
-        <v>0.74</v>
+        <v>0.88</v>
       </c>
       <c r="F225">
-        <v>0.26</v>
+        <v>0.12</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>915</v>
+        <v>49</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>488</v>
@@ -14665,7 +14665,7 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.0003126998668007813</v>
+        <v>0.0003167888234243706</v>
       </c>
       <c r="C226">
         <v>1</v>
@@ -14683,7 +14683,7 @@
         <v>1</v>
       </c>
       <c r="H226">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>489</v>
@@ -14715,7 +14715,7 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.0003126998668007813</v>
+        <v>0.0003167888234243706</v>
       </c>
       <c r="C227">
         <v>1</v>
@@ -14733,7 +14733,7 @@
         <v>1</v>
       </c>
       <c r="H227">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>490</v>
@@ -14765,25 +14765,25 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.0003126998668007813</v>
+        <v>0.0002798024996235646</v>
       </c>
       <c r="C228">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D228">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E228">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="F228">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="G228" t="b">
         <v>1</v>
       </c>
       <c r="H228">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>491</v>
@@ -14815,25 +14815,25 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.0003126998668007813</v>
+        <v>0.0002730800998902264</v>
       </c>
       <c r="C229">
         <v>1</v>
       </c>
       <c r="D229">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E229">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="F229">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="G229" t="b">
         <v>1</v>
       </c>
       <c r="H229">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>492</v>
@@ -14865,25 +14865,25 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.0002761909445448049</v>
+        <v>0.0002730800998902264</v>
       </c>
       <c r="C230">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D230">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E230">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
       <c r="F230">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="G230" t="b">
         <v>1</v>
       </c>
       <c r="H230">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>493</v>
@@ -14915,7 +14915,7 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.0002695553142896917</v>
+        <v>0.0002730800998902264</v>
       </c>
       <c r="C231">
         <v>1</v>
@@ -14933,7 +14933,7 @@
         <v>1</v>
       </c>
       <c r="H231">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>494</v>
@@ -14965,7 +14965,7 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.0002695553142896917</v>
+        <v>0.0002730800998902264</v>
       </c>
       <c r="C232">
         <v>1</v>
@@ -14983,7 +14983,7 @@
         <v>1</v>
       </c>
       <c r="H232">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>495</v>
@@ -15015,7 +15015,7 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.0002695553142896917</v>
+        <v>0.0002730800998902264</v>
       </c>
       <c r="C233">
         <v>1</v>
@@ -15033,7 +15033,7 @@
         <v>1</v>
       </c>
       <c r="H233">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>496</v>
@@ -15065,25 +15065,25 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.0002695553142896917</v>
+        <v>0.000224357520001191</v>
       </c>
       <c r="C234">
         <v>1</v>
       </c>
       <c r="D234">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E234">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="F234">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="G234" t="b">
         <v>1</v>
       </c>
       <c r="H234">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>497</v>
@@ -15115,25 +15115,25 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.0002695553142896917</v>
+        <v>0.000224357520001191</v>
       </c>
       <c r="C235">
         <v>1</v>
       </c>
       <c r="D235">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E235">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="F235">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="G235" t="b">
         <v>1</v>
       </c>
       <c r="H235">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>498</v>
@@ -15165,7 +15165,7 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.0002214616218519308</v>
+        <v>0.000224357520001191</v>
       </c>
       <c r="C236">
         <v>1</v>
@@ -15183,7 +15183,7 @@
         <v>1</v>
       </c>
       <c r="H236">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>499</v>
@@ -15215,7 +15215,7 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.0002214616218519308</v>
+        <v>0.000224357520001191</v>
       </c>
       <c r="C237">
         <v>1</v>
@@ -15233,7 +15233,7 @@
         <v>1</v>
       </c>
       <c r="H237">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>500</v>
@@ -15265,7 +15265,7 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.0002214616218519308</v>
+        <v>0.000224357520001191</v>
       </c>
       <c r="C238">
         <v>1</v>
@@ -15283,7 +15283,7 @@
         <v>1</v>
       </c>
       <c r="H238">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>501</v>
@@ -15315,7 +15315,7 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.0002214616218519308</v>
+        <v>0.000224357520001191</v>
       </c>
       <c r="C239">
         <v>1</v>
@@ -15333,7 +15333,7 @@
         <v>1</v>
       </c>
       <c r="H239">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>502</v>
@@ -15365,7 +15365,7 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.0002214616218519308</v>
+        <v>0.000224357520001191</v>
       </c>
       <c r="C240">
         <v>1</v>
@@ -15383,7 +15383,7 @@
         <v>1</v>
       </c>
       <c r="H240">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>503</v>
@@ -15415,25 +15415,25 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.0002214616218519308</v>
+        <v>0.000198168043638362</v>
       </c>
       <c r="C241">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D241">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E241">
-        <v>0.83</v>
+        <v>0.78</v>
       </c>
       <c r="F241">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="G241" t="b">
         <v>1</v>
       </c>
       <c r="H241">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>504</v>
@@ -15465,25 +15465,25 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.0002214616218519308</v>
+        <v>0.000198168043638362</v>
       </c>
       <c r="C242">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D242">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E242">
-        <v>0.83</v>
+        <v>0.78</v>
       </c>
       <c r="F242">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="G242" t="b">
         <v>1</v>
       </c>
       <c r="H242">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>505</v>
@@ -15515,25 +15515,25 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.0001956101865591262</v>
+        <v>0.0001697867520161364</v>
       </c>
       <c r="C243">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D243">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E243">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="F243">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="G243" t="b">
         <v>1</v>
       </c>
       <c r="H243">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>506</v>
@@ -15565,25 +15565,25 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.0001956101865591262</v>
+        <v>0.0001697867520161364</v>
       </c>
       <c r="C244">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D244">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E244">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="F244">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="G244" t="b">
         <v>1</v>
       </c>
       <c r="H244">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>507</v>
@@ -15615,7 +15615,7 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.0001675952268961858</v>
+        <v>0.0001697867520161364</v>
       </c>
       <c r="C245">
         <v>1</v>
@@ -15633,7 +15633,7 @@
         <v>1</v>
       </c>
       <c r="H245">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>508</v>
@@ -15665,7 +15665,7 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.0001675952268961858</v>
+        <v>0.0001697867520161364</v>
       </c>
       <c r="C246">
         <v>1</v>
@@ -15683,7 +15683,7 @@
         <v>1</v>
       </c>
       <c r="H246">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>509</v>
@@ -15715,7 +15715,7 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.0001675952268961858</v>
+        <v>0.0001697867520161364</v>
       </c>
       <c r="C247">
         <v>1</v>
@@ -15733,7 +15733,7 @@
         <v>1</v>
       </c>
       <c r="H247">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>510</v>
@@ -15765,25 +15765,25 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.0001675952268961858</v>
+        <v>0.0001540789872177228</v>
       </c>
       <c r="C248">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D248">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E248">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F248">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G248" t="b">
         <v>1</v>
       </c>
       <c r="H248">
-        <v>58</v>
+        <v>285</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>511</v>
@@ -15815,25 +15815,25 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.0001675952268961858</v>
+        <v>0.0001139351517575969</v>
       </c>
       <c r="C249">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D249">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E249">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F249">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="G249" t="b">
         <v>1</v>
       </c>
       <c r="H249">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>512</v>
@@ -15865,25 +15865,25 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.0001520902103141391</v>
+        <v>0.0001139351517575969</v>
       </c>
       <c r="C250">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D250">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E250">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="F250">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="G250" t="b">
         <v>1</v>
       </c>
       <c r="H250">
-        <v>285</v>
+        <v>161</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>513</v>
@@ -15915,25 +15915,25 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.0001124645320292778</v>
+        <v>0.0001089502967000076</v>
       </c>
       <c r="C251">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D251">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E251">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="F251">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="G251" t="b">
         <v>1</v>
       </c>
       <c r="H251">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>514</v>
@@ -15965,25 +15965,25 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>0.0001124645320292778</v>
+        <v>0.0001089502967000076</v>
       </c>
       <c r="C252">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D252">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E252">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="F252">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="G252" t="b">
         <v>1</v>
       </c>
       <c r="H252">
-        <v>161</v>
+        <v>11</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>515</v>
@@ -16015,7 +16015,7 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.0001075440190652164</v>
+        <v>0.0001089502967000076</v>
       </c>
       <c r="C253">
         <v>1</v>
@@ -16033,7 +16033,7 @@
         <v>1</v>
       </c>
       <c r="H253">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>516</v>
@@ -16065,7 +16065,7 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>0.0001075440190652164</v>
+        <v>0.0001089502967000076</v>
       </c>
       <c r="C254">
         <v>1</v>
@@ -16083,7 +16083,7 @@
         <v>1</v>
       </c>
       <c r="H254">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>517</v>
@@ -16115,7 +16115,7 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>0.0001075440190652164</v>
+        <v>0.0001089502967000076</v>
       </c>
       <c r="C255">
         <v>1</v>
@@ -16133,7 +16133,7 @@
         <v>1</v>
       </c>
       <c r="H255">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>518</v>
@@ -16165,7 +16165,7 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>0.0001075440190652164</v>
+        <v>0.0001089502967000076</v>
       </c>
       <c r="C256">
         <v>1</v>
@@ -16183,7 +16183,7 @@
         <v>1</v>
       </c>
       <c r="H256">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>519</v>
@@ -16215,7 +16215,7 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>0.0001075440190652164</v>
+        <v>0.0001089502967000076</v>
       </c>
       <c r="C257">
         <v>1</v>
@@ -16233,7 +16233,7 @@
         <v>1</v>
       </c>
       <c r="H257">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>520</v>
@@ -16265,7 +16265,7 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>0.0001075440190652164</v>
+        <v>0.0001089502967000076</v>
       </c>
       <c r="C258">
         <v>1</v>
@@ -16283,7 +16283,7 @@
         <v>1</v>
       </c>
       <c r="H258">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>521</v>
@@ -16315,7 +16315,7 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>0.0001075440190652164</v>
+        <v>0.0001089502967000076</v>
       </c>
       <c r="C259">
         <v>1</v>
@@ -16333,7 +16333,7 @@
         <v>1</v>
       </c>
       <c r="H259">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>522</v>
@@ -16365,7 +16365,7 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>0.0001075440190652164</v>
+        <v>0.0001089502967000076</v>
       </c>
       <c r="C260">
         <v>1</v>
@@ -16383,7 +16383,7 @@
         <v>1</v>
       </c>
       <c r="H260">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>523</v>
@@ -16415,7 +16415,7 @@
         <v>266</v>
       </c>
       <c r="B261">
-        <v>0.0001075440190652164</v>
+        <v>0.0001089502967000076</v>
       </c>
       <c r="C261">
         <v>1</v>
@@ -16433,7 +16433,7 @@
         <v>1</v>
       </c>
       <c r="H261">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>524</v>
@@ -16465,7 +16465,7 @@
         <v>267</v>
       </c>
       <c r="B262">
-        <v>0.0001075440190652164</v>
+        <v>0.0001089502967000076</v>
       </c>
       <c r="C262">
         <v>1</v>
@@ -16483,7 +16483,7 @@
         <v>1</v>
       </c>
       <c r="H262">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>525</v>
@@ -16515,7 +16515,7 @@
         <v>268</v>
       </c>
       <c r="B263">
-        <v>0.0001075440190652164</v>
+        <v>0.0001089502967000076</v>
       </c>
       <c r="C263">
         <v>1</v>
@@ -16533,7 +16533,7 @@
         <v>1</v>
       </c>
       <c r="H263">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>526</v>
@@ -16565,7 +16565,7 @@
         <v>269</v>
       </c>
       <c r="B264">
-        <v>0.0001075440190652164</v>
+        <v>0.0001089502967000076</v>
       </c>
       <c r="C264">
         <v>1</v>
@@ -16583,7 +16583,7 @@
         <v>1</v>
       </c>
       <c r="H264">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>527</v>
@@ -16615,25 +16615,25 @@
         <v>270</v>
       </c>
       <c r="B265">
-        <v>0.0001075440190652164</v>
+        <v>0.0001083891513283966</v>
       </c>
       <c r="C265">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D265">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E265">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="F265">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="G265" t="b">
         <v>1</v>
       </c>
       <c r="H265">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="J265" s="1" t="s">
         <v>528</v>
@@ -16665,25 +16665,25 @@
         <v>271</v>
       </c>
       <c r="B266">
-        <v>0.0001075440190652164</v>
+        <v>6.271440348200164E-05</v>
       </c>
       <c r="C266">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D266">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E266">
-        <v>0.75</v>
+        <v>0.33</v>
       </c>
       <c r="F266">
-        <v>0.25</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G266" t="b">
         <v>1</v>
       </c>
       <c r="H266">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="J266" s="1" t="s">
         <v>529</v>
@@ -16715,25 +16715,25 @@
         <v>272</v>
       </c>
       <c r="B267">
-        <v>0.0001069901166861429</v>
+        <v>6.271440348200067E-05</v>
       </c>
       <c r="C267">
         <v>2</v>
       </c>
       <c r="D267">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E267">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="F267">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="G267" t="b">
         <v>1</v>
       </c>
       <c r="H267">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>530</v>
@@ -16765,25 +16765,25 @@
         <v>273</v>
       </c>
       <c r="B268">
-        <v>6.190491635193122E-05</v>
+        <v>4.43457799801919E-05</v>
       </c>
       <c r="C268">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D268">
         <v>3</v>
       </c>
       <c r="E268">
+        <v>0.67</v>
+      </c>
+      <c r="F268">
         <v>0.33</v>
       </c>
-      <c r="F268">
-        <v>0.6699999999999999</v>
-      </c>
       <c r="G268" t="b">
         <v>1</v>
       </c>
       <c r="H268">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>531</v>
@@ -16815,13 +16815,13 @@
         <v>274</v>
       </c>
       <c r="B269">
-        <v>6.190491635193026E-05</v>
+        <v>4.43457799801919E-05</v>
       </c>
       <c r="C269">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D269">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E269">
         <v>0.67</v>
@@ -16833,7 +16833,7 @@
         <v>1</v>
       </c>
       <c r="H269">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>532</v>
@@ -16865,7 +16865,7 @@
         <v>275</v>
       </c>
       <c r="B270">
-        <v>4.377338614123587E-05</v>
+        <v>4.43457799801919E-05</v>
       </c>
       <c r="C270">
         <v>1</v>
@@ -16883,7 +16883,7 @@
         <v>1</v>
       </c>
       <c r="H270">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="J270" s="1" t="s">
         <v>533</v>
@@ -16915,7 +16915,7 @@
         <v>276</v>
       </c>
       <c r="B271">
-        <v>4.377338614123587E-05</v>
+        <v>4.43457799801919E-05</v>
       </c>
       <c r="C271">
         <v>1</v>
@@ -16933,7 +16933,7 @@
         <v>1</v>
       </c>
       <c r="H271">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="J271" s="1" t="s">
         <v>534</v>
@@ -16965,7 +16965,7 @@
         <v>277</v>
       </c>
       <c r="B272">
-        <v>4.377338614123587E-05</v>
+        <v>4.43457799801919E-05</v>
       </c>
       <c r="C272">
         <v>1</v>
@@ -16983,7 +16983,7 @@
         <v>1</v>
       </c>
       <c r="H272">
-        <v>103</v>
+        <v>37</v>
       </c>
       <c r="J272" s="1" t="s">
         <v>535</v>
@@ -17015,7 +17015,7 @@
         <v>278</v>
       </c>
       <c r="B273">
-        <v>4.377338614123587E-05</v>
+        <v>4.43457799801919E-05</v>
       </c>
       <c r="C273">
         <v>1</v>
@@ -17033,7 +17033,7 @@
         <v>1</v>
       </c>
       <c r="H273">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J273" s="1" t="s">
         <v>536</v>
@@ -17065,7 +17065,7 @@
         <v>279</v>
       </c>
       <c r="B274">
-        <v>4.377338614123587E-05</v>
+        <v>4.43457799801919E-05</v>
       </c>
       <c r="C274">
         <v>1</v>
@@ -17083,7 +17083,7 @@
         <v>1</v>
       </c>
       <c r="H274">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="J274" s="1" t="s">
         <v>537</v>
@@ -17115,7 +17115,7 @@
         <v>280</v>
       </c>
       <c r="B275">
-        <v>4.377338614123587E-05</v>
+        <v>4.43457799801919E-05</v>
       </c>
       <c r="C275">
         <v>1</v>
@@ -17133,7 +17133,7 @@
         <v>1</v>
       </c>
       <c r="H275">
-        <v>25</v>
+        <v>123</v>
       </c>
       <c r="J275" s="1" t="s">
         <v>538</v>
@@ -17165,7 +17165,7 @@
         <v>281</v>
       </c>
       <c r="B276">
-        <v>4.377338614123587E-05</v>
+        <v>4.43457799801919E-05</v>
       </c>
       <c r="C276">
         <v>1</v>
@@ -17183,7 +17183,7 @@
         <v>1</v>
       </c>
       <c r="H276">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J276" s="1" t="s">
         <v>539</v>
@@ -17215,7 +17215,7 @@
         <v>282</v>
       </c>
       <c r="B277">
-        <v>4.377338614123587E-05</v>
+        <v>4.43457799801919E-05</v>
       </c>
       <c r="C277">
         <v>1</v>
@@ -17233,7 +17233,7 @@
         <v>1</v>
       </c>
       <c r="H277">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="J277" s="1" t="s">
         <v>540</v>
@@ -17265,7 +17265,7 @@
         <v>283</v>
       </c>
       <c r="B278">
-        <v>4.377338614123587E-05</v>
+        <v>4.43457799801919E-05</v>
       </c>
       <c r="C278">
         <v>1</v>
@@ -17283,7 +17283,7 @@
         <v>1</v>
       </c>
       <c r="H278">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="J278" s="1" t="s">
         <v>541</v>
@@ -17315,25 +17315,25 @@
         <v>284</v>
       </c>
       <c r="B279">
-        <v>4.377338614123587E-05</v>
+        <v>4.20010241955473E-05</v>
       </c>
       <c r="C279">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D279">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E279">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="F279">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="G279" t="b">
         <v>1</v>
       </c>
       <c r="H279">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="J279" s="1" t="s">
         <v>542</v>
@@ -17365,25 +17365,25 @@
         <v>285</v>
       </c>
       <c r="B280">
-        <v>4.377338614123587E-05</v>
+        <v>2.167102057049284E-05</v>
       </c>
       <c r="C280">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D280">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E280">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="F280">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="G280" t="b">
         <v>1</v>
       </c>
       <c r="H280">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="J280" s="1" t="s">
         <v>543</v>
@@ -17415,25 +17415,25 @@
         <v>286</v>
       </c>
       <c r="B281">
-        <v>4.145889532804034E-05</v>
+        <v>2.167102057049284E-05</v>
       </c>
       <c r="C281">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D281">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E281">
-        <v>0.62</v>
+        <v>0.6</v>
       </c>
       <c r="F281">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="G281" t="b">
         <v>1</v>
       </c>
       <c r="H281">
-        <v>48</v>
+        <v>186</v>
       </c>
       <c r="J281" s="1" t="s">
         <v>544</v>
@@ -17465,25 +17465,25 @@
         <v>287</v>
       </c>
       <c r="B282">
-        <v>2.139130153828775E-05</v>
+        <v>1.339517234631992E-05</v>
       </c>
       <c r="C282">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D282">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E282">
-        <v>0.6</v>
+        <v>0.57</v>
       </c>
       <c r="F282">
-        <v>0.4</v>
+        <v>0.43</v>
       </c>
       <c r="G282" t="b">
         <v>1</v>
       </c>
       <c r="H282">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="J282" s="1" t="s">
         <v>545</v>
@@ -17515,25 +17515,25 @@
         <v>288</v>
       </c>
       <c r="B283">
-        <v>2.139130153828775E-05</v>
+        <v>0</v>
       </c>
       <c r="C283">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D283">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E283">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="F283">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G283" t="b">
         <v>1</v>
       </c>
       <c r="H283">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J283" s="1" t="s">
         <v>546</v>
@@ -17565,25 +17565,25 @@
         <v>289</v>
       </c>
       <c r="B284">
-        <v>1.322227395269121E-05</v>
+        <v>0</v>
       </c>
       <c r="C284">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D284">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E284">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="F284">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="G284" t="b">
         <v>1</v>
       </c>
       <c r="H284">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="J284" s="1" t="s">
         <v>547</v>
@@ -17633,7 +17633,7 @@
         <v>1</v>
       </c>
       <c r="H285">
-        <v>187</v>
+        <v>37</v>
       </c>
       <c r="J285" s="1" t="s">
         <v>548</v>
@@ -17683,10 +17683,10 @@
         <v>1</v>
       </c>
       <c r="H286">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="J286" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K286">
         <v>0.0009023581921773089</v>
@@ -17733,10 +17733,10 @@
         <v>1</v>
       </c>
       <c r="H287">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="J287" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K287">
         <v>0.0008720184119652232</v>
@@ -17783,10 +17783,10 @@
         <v>1</v>
       </c>
       <c r="H288">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J288" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K288">
         <v>0.0008689289734733921</v>
@@ -17833,10 +17833,10 @@
         <v>1</v>
       </c>
       <c r="H289">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J289" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K289">
         <v>0.0008656866436510369</v>
@@ -17886,7 +17886,7 @@
         <v>22</v>
       </c>
       <c r="J290" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K290">
         <v>0.0008198893063116677</v>
@@ -17918,10 +17918,10 @@
         <v>0</v>
       </c>
       <c r="C291">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D291">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E291">
         <v>0.5</v>
@@ -17933,10 +17933,10 @@
         <v>1</v>
       </c>
       <c r="H291">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="J291" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K291">
         <v>0.0007910832268701191</v>
@@ -17983,7 +17983,7 @@
         <v>1</v>
       </c>
       <c r="H292">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J292" s="1" t="s">
         <v>549</v>
@@ -18018,10 +18018,10 @@
         <v>0</v>
       </c>
       <c r="C293">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D293">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E293">
         <v>0.5</v>
@@ -18033,7 +18033,7 @@
         <v>1</v>
       </c>
       <c r="H293">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="J293" s="1" t="s">
         <v>550</v>
@@ -18083,7 +18083,7 @@
         <v>1</v>
       </c>
       <c r="H294">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J294" s="1" t="s">
         <v>551</v>
@@ -18133,7 +18133,7 @@
         <v>1</v>
       </c>
       <c r="H295">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="J295" s="1" t="s">
         <v>552</v>
@@ -18183,7 +18183,7 @@
         <v>1</v>
       </c>
       <c r="H296">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J296" s="1" t="s">
         <v>553</v>
@@ -18283,7 +18283,7 @@
         <v>1</v>
       </c>
       <c r="H298">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="J298" s="1" t="s">
         <v>555</v>
@@ -18333,7 +18333,7 @@
         <v>1</v>
       </c>
       <c r="H299">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="J299" s="1" t="s">
         <v>556</v>
@@ -18361,30 +18361,6 @@
       </c>
     </row>
     <row r="300" spans="1:17">
-      <c r="A300" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="B300">
-        <v>0</v>
-      </c>
-      <c r="C300">
-        <v>1</v>
-      </c>
-      <c r="D300">
-        <v>2</v>
-      </c>
-      <c r="E300">
-        <v>0.5</v>
-      </c>
-      <c r="F300">
-        <v>0.5</v>
-      </c>
-      <c r="G300" t="b">
-        <v>1</v>
-      </c>
-      <c r="H300">
-        <v>57</v>
-      </c>
       <c r="J300" s="1" t="s">
         <v>557</v>
       </c>
@@ -18411,30 +18387,6 @@
       </c>
     </row>
     <row r="301" spans="1:17">
-      <c r="A301" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B301">
-        <v>0</v>
-      </c>
-      <c r="C301">
-        <v>1</v>
-      </c>
-      <c r="D301">
-        <v>2</v>
-      </c>
-      <c r="E301">
-        <v>0.5</v>
-      </c>
-      <c r="F301">
-        <v>0.5</v>
-      </c>
-      <c r="G301" t="b">
-        <v>1</v>
-      </c>
-      <c r="H301">
-        <v>13</v>
-      </c>
       <c r="J301" s="1" t="s">
         <v>558</v>
       </c>
@@ -21842,7 +21794,7 @@
     </row>
     <row r="432" spans="10:17">
       <c r="J432" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K432">
         <v>0.0007147132251892926</v>
@@ -21868,7 +21820,7 @@
     </row>
     <row r="433" spans="10:17">
       <c r="J433" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K433">
         <v>0.0006758333569300976</v>
@@ -21894,7 +21846,7 @@
     </row>
     <row r="434" spans="10:17">
       <c r="J434" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K434">
         <v>0.0006758333569300976</v>
@@ -21920,7 +21872,7 @@
     </row>
     <row r="435" spans="10:17">
       <c r="J435" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K435">
         <v>0.000636473593005486</v>
@@ -21946,7 +21898,7 @@
     </row>
     <row r="436" spans="10:17">
       <c r="J436" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K436">
         <v>0.000636473593005486</v>
@@ -21972,7 +21924,7 @@
     </row>
     <row r="437" spans="10:17">
       <c r="J437" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K437">
         <v>0.000636473593005486</v>
@@ -21998,7 +21950,7 @@
     </row>
     <row r="438" spans="10:17">
       <c r="J438" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K438">
         <v>0.0006257438063181472</v>
@@ -22024,7 +21976,7 @@
     </row>
     <row r="439" spans="10:17">
       <c r="J439" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K439">
         <v>0.0006111653325903037</v>
@@ -22050,7 +22002,7 @@
     </row>
     <row r="440" spans="10:17">
       <c r="J440" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K440">
         <v>0.0005966225302062287</v>
@@ -22076,7 +22028,7 @@
     </row>
     <row r="441" spans="10:17">
       <c r="J441" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K441">
         <v>0.0005966225302062287</v>
@@ -22102,7 +22054,7 @@
     </row>
     <row r="442" spans="10:17">
       <c r="J442" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K442">
         <v>0.0005966225302062287</v>
@@ -22128,7 +22080,7 @@
     </row>
     <row r="443" spans="10:17">
       <c r="J443" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K443">
         <v>0.0005812877951399228</v>
@@ -22154,7 +22106,7 @@
     </row>
     <row r="444" spans="10:17">
       <c r="J444" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K444">
         <v>0.0005812877951399228</v>
@@ -22180,7 +22132,7 @@
     </row>
     <row r="445" spans="10:17">
       <c r="J445" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K445">
         <v>0.0005512390199286449</v>
@@ -22206,7 +22158,7 @@
     </row>
     <row r="446" spans="10:17">
       <c r="J446" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K446">
         <v>0.0005424900649478133</v>
@@ -31020,7 +30972,7 @@
     </row>
     <row r="785" spans="10:17">
       <c r="J785" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K785">
         <v>0.000500890897235307</v>
@@ -31046,7 +30998,7 @@
     </row>
     <row r="786" spans="10:17">
       <c r="J786" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K786">
         <v>0.0004740385689347262</v>
@@ -31072,7 +31024,7 @@
     </row>
     <row r="787" spans="10:17">
       <c r="J787" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K787">
         <v>0.0004601324254721981</v>
@@ -31098,7 +31050,7 @@
     </row>
     <row r="788" spans="10:17">
       <c r="J788" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K788">
         <v>0.0004321591511007354</v>
@@ -31124,7 +31076,7 @@
     </row>
     <row r="789" spans="10:17">
       <c r="J789" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K789">
         <v>0.0004321591511007354</v>
@@ -31150,7 +31102,7 @@
     </row>
     <row r="790" spans="10:17">
       <c r="J790" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K790">
         <v>0.0003897848490461713</v>
@@ -31176,7 +31128,7 @@
     </row>
     <row r="791" spans="10:17">
       <c r="J791" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K791">
         <v>0.0003469436416473946</v>
@@ -31202,7 +31154,7 @@
     </row>
     <row r="792" spans="10:17">
       <c r="J792" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K792">
         <v>0.0003469436416473946</v>
@@ -31228,7 +31180,7 @@
     </row>
     <row r="793" spans="10:17">
       <c r="J793" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K793">
         <v>0.0003369112994058259</v>
@@ -31254,7 +31206,7 @@
     </row>
     <row r="794" spans="10:17">
       <c r="J794" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K794">
         <v>0.0003235912247900088</v>
@@ -31280,7 +31232,7 @@
     </row>
     <row r="795" spans="10:17">
       <c r="J795" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K795">
         <v>0.0003036868903877085</v>
@@ -31306,7 +31258,7 @@
     </row>
     <row r="796" spans="10:17">
       <c r="J796" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K796">
         <v>0.0003036868903877085</v>
@@ -31332,7 +31284,7 @@
     </row>
     <row r="797" spans="10:17">
       <c r="J797" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K797">
         <v>0.0002750209693012029</v>
@@ -31358,7 +31310,7 @@
     </row>
     <row r="798" spans="10:17">
       <c r="J798" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K798">
         <v>0.0002601032370644293</v>
@@ -31384,7 +31336,7 @@
     </row>
     <row r="799" spans="10:17">
       <c r="J799" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K799">
         <v>0.0002601032370644293</v>
@@ -31410,7 +31362,7 @@
     </row>
     <row r="800" spans="10:17">
       <c r="J800" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K800">
         <v>0.0002601032370644293</v>
@@ -31436,7 +31388,7 @@
     </row>
     <row r="801" spans="10:17">
       <c r="J801" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K801">
         <v>0.0002601032370644293</v>
@@ -31462,7 +31414,7 @@
     </row>
     <row r="802" spans="10:17">
       <c r="J802" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K802">
         <v>0.0002601032370644293</v>
@@ -31488,7 +31440,7 @@
     </row>
     <row r="803" spans="10:17">
       <c r="J803" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K803">
         <v>0.0002441763640543661</v>
@@ -31514,7 +31466,7 @@
     </row>
     <row r="804" spans="10:17">
       <c r="J804" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K804">
         <v>0.0002163424867369371</v>
@@ -31540,7 +31492,7 @@
     </row>
     <row r="805" spans="10:17">
       <c r="J805" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K805">
         <v>0.0002163424867369371</v>
@@ -31566,7 +31518,7 @@
     </row>
     <row r="806" spans="10:17">
       <c r="J806" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K806">
         <v>0.0002163424867369371</v>
@@ -31592,7 +31544,7 @@
     </row>
     <row r="807" spans="10:17">
       <c r="J807" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K807">
         <v>0.0002163424867369371</v>
@@ -31618,7 +31570,7 @@
     </row>
     <row r="808" spans="10:17">
       <c r="J808" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K808">
         <v>0.0001726587628283174</v>
@@ -31644,7 +31596,7 @@
     </row>
     <row r="809" spans="10:17">
       <c r="J809" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K809">
         <v>0.0001726587628283174</v>
@@ -31670,7 +31622,7 @@
     </row>
     <row r="810" spans="10:17">
       <c r="J810" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K810">
         <v>0.0001726587628283174</v>
@@ -31696,7 +31648,7 @@
     </row>
     <row r="811" spans="10:17">
       <c r="J811" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K811">
         <v>0.0001726587628283174</v>
@@ -31722,7 +31674,7 @@
     </row>
     <row r="812" spans="10:17">
       <c r="J812" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K812">
         <v>0.0001726587628283174</v>
@@ -31748,7 +31700,7 @@
     </row>
     <row r="813" spans="10:17">
       <c r="J813" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K813">
         <v>0.0001534619491661141</v>
@@ -31774,7 +31726,7 @@
     </row>
     <row r="814" spans="10:17">
       <c r="J814" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K814">
         <v>0.0001532077707070094</v>
@@ -31800,7 +31752,7 @@
     </row>
     <row r="815" spans="10:17">
       <c r="J815" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K815">
         <v>0.0001294936819088325</v>
@@ -31826,7 +31778,7 @@
     </row>
     <row r="816" spans="10:17">
       <c r="J816" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K816">
         <v>0.0001294936819088325</v>
@@ -31852,7 +31804,7 @@
     </row>
     <row r="817" spans="10:17">
       <c r="J817" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K817">
         <v>0.0001294936819088325</v>
@@ -31878,7 +31830,7 @@
     </row>
     <row r="818" spans="10:17">
       <c r="J818" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K818">
         <v>0.0001294936819088325</v>
@@ -31904,7 +31856,7 @@
     </row>
     <row r="819" spans="10:17">
       <c r="J819" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K819">
         <v>0.0001294936819088325</v>
@@ -31930,7 +31882,7 @@
     </row>
     <row r="820" spans="10:17">
       <c r="J820" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K820">
         <v>0.0001294936819088325</v>
@@ -31956,7 +31908,7 @@
     </row>
     <row r="821" spans="10:17">
       <c r="J821" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K821">
         <v>0.0001294936819088325</v>
@@ -31982,7 +31934,7 @@
     </row>
     <row r="822" spans="10:17">
       <c r="J822" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K822">
         <v>9.569529610114775E-05</v>
@@ -32008,7 +31960,7 @@
     </row>
     <row r="823" spans="10:17">
       <c r="J823" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K823">
         <v>9.569529610114775E-05</v>
@@ -32034,7 +31986,7 @@
     </row>
     <row r="824" spans="10:17">
       <c r="J824" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K824">
         <v>8.765097321689958E-05</v>
@@ -32060,7 +32012,7 @@
     </row>
     <row r="825" spans="10:17">
       <c r="J825" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K825">
         <v>8.765097321689958E-05</v>
@@ -32086,7 +32038,7 @@
     </row>
     <row r="826" spans="10:17">
       <c r="J826" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K826">
         <v>8.765097321689958E-05</v>
@@ -32112,7 +32064,7 @@
     </row>
     <row r="827" spans="10:17">
       <c r="J827" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K827">
         <v>8.765097321689958E-05</v>
@@ -32138,7 +32090,7 @@
     </row>
     <row r="828" spans="10:17">
       <c r="J828" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K828">
         <v>8.765097321689958E-05</v>
@@ -32164,7 +32116,7 @@
     </row>
     <row r="829" spans="10:17">
       <c r="J829" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K829">
         <v>7.048764475826616E-05</v>
@@ -32190,7 +32142,7 @@
     </row>
     <row r="830" spans="10:17">
       <c r="J830" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K830">
         <v>6.888536896523452E-05</v>
@@ -32216,7 +32168,7 @@
     </row>
     <row r="831" spans="10:17">
       <c r="J831" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K831">
         <v>4.870931151985468E-05</v>
@@ -32242,7 +32194,7 @@
     </row>
     <row r="832" spans="10:17">
       <c r="J832" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K832">
         <v>4.870931151985468E-05</v>
@@ -32268,7 +32220,7 @@
     </row>
     <row r="833" spans="10:17">
       <c r="J833" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K833">
         <v>4.870931151985468E-05</v>
@@ -32294,7 +32246,7 @@
     </row>
     <row r="834" spans="10:17">
       <c r="J834" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K834">
         <v>4.870931151985468E-05</v>
@@ -32320,7 +32272,7 @@
     </row>
     <row r="835" spans="10:17">
       <c r="J835" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K835">
         <v>4.870931151985468E-05</v>
@@ -32346,7 +32298,7 @@
     </row>
     <row r="836" spans="10:17">
       <c r="J836" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K836">
         <v>4.870931151985468E-05</v>
@@ -32372,7 +32324,7 @@
     </row>
     <row r="837" spans="10:17">
       <c r="J837" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K837">
         <v>4.870931151985468E-05</v>
@@ -32398,7 +32350,7 @@
     </row>
     <row r="838" spans="10:17">
       <c r="J838" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K838">
         <v>4.870931151985468E-05</v>
@@ -32424,7 +32376,7 @@
     </row>
     <row r="839" spans="10:17">
       <c r="J839" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K839">
         <v>4.870931151985468E-05</v>
@@ -32450,7 +32402,7 @@
     </row>
     <row r="840" spans="10:17">
       <c r="J840" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K840">
         <v>4.870931151985468E-05</v>
@@ -32476,7 +32428,7 @@
     </row>
     <row r="841" spans="10:17">
       <c r="J841" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K841">
         <v>4.870931151985468E-05</v>
@@ -32502,7 +32454,7 @@
     </row>
     <row r="842" spans="10:17">
       <c r="J842" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K842">
         <v>4.870931151985468E-05</v>
@@ -32528,7 +32480,7 @@
     </row>
     <row r="843" spans="10:17">
       <c r="J843" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K843">
         <v>4.870931151985468E-05</v>
@@ -32554,7 +32506,7 @@
     </row>
     <row r="844" spans="10:17">
       <c r="J844" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K844">
         <v>4.870931151985468E-05</v>
@@ -32580,7 +32532,7 @@
     </row>
     <row r="845" spans="10:17">
       <c r="J845" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K845">
         <v>4.492303341956782E-05</v>
@@ -32606,7 +32558,7 @@
     </row>
     <row r="846" spans="10:17">
       <c r="J846" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K846">
         <v>4.492303341956782E-05</v>
@@ -32632,7 +32584,7 @@
     </row>
     <row r="847" spans="10:17">
       <c r="J847" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K847">
         <v>4.423629714251762E-05</v>
@@ -32658,7 +32610,7 @@
     </row>
     <row r="848" spans="10:17">
       <c r="J848" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K848">
         <v>2.289313345812134E-05</v>
@@ -32684,7 +32636,7 @@
     </row>
     <row r="849" spans="10:17">
       <c r="J849" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K849">
         <v>1.618788991084632E-05</v>
@@ -32710,7 +32662,7 @@
     </row>
     <row r="850" spans="10:17">
       <c r="J850" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K850">
         <v>1.618788991084632E-05</v>
@@ -32736,7 +32688,7 @@
     </row>
     <row r="851" spans="10:17">
       <c r="J851" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K851">
         <v>1.618788991084632E-05</v>
@@ -32762,7 +32714,7 @@
     </row>
     <row r="852" spans="10:17">
       <c r="J852" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K852">
         <v>1.618788991084632E-05</v>
@@ -32788,7 +32740,7 @@
     </row>
     <row r="853" spans="10:17">
       <c r="J853" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K853">
         <v>1.618788991084632E-05</v>
@@ -32814,7 +32766,7 @@
     </row>
     <row r="854" spans="10:17">
       <c r="J854" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K854">
         <v>1.618788991084632E-05</v>
@@ -32840,7 +32792,7 @@
     </row>
     <row r="855" spans="10:17">
       <c r="J855" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K855">
         <v>1.618788991084632E-05</v>
@@ -32866,7 +32818,7 @@
     </row>
     <row r="856" spans="10:17">
       <c r="J856" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K856">
         <v>1.618788991084632E-05</v>
@@ -32892,7 +32844,7 @@
     </row>
     <row r="857" spans="10:17">
       <c r="J857" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K857">
         <v>1.618788991084632E-05</v>
@@ -32918,7 +32870,7 @@
     </row>
     <row r="858" spans="10:17">
       <c r="J858" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K858">
         <v>1.618788991084632E-05</v>
@@ -32944,7 +32896,7 @@
     </row>
     <row r="859" spans="10:17">
       <c r="J859" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K859">
         <v>1.618788991084632E-05</v>
@@ -32970,7 +32922,7 @@
     </row>
     <row r="860" spans="10:17">
       <c r="J860" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K860">
         <v>1.399610532638232E-05</v>
@@ -32996,7 +32948,7 @@
     </row>
     <row r="861" spans="10:17">
       <c r="J861" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K861">
         <v>1.144656672906055E-05</v>
@@ -33022,7 +32974,7 @@
     </row>
     <row r="862" spans="10:17">
       <c r="J862" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K862">
         <v>6.850904922095034E-06</v>
@@ -33048,7 +33000,7 @@
     </row>
     <row r="863" spans="10:17">
       <c r="J863" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K863">
         <v>6.850904922095034E-06</v>
@@ -33074,7 +33026,7 @@
     </row>
     <row r="864" spans="10:17">
       <c r="J864" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K864">
         <v>3.992460430377743E-06</v>
@@ -33100,7 +33052,7 @@
     </row>
     <row r="865" spans="10:17">
       <c r="J865" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K865">
         <v>0</v>
@@ -33126,7 +33078,7 @@
     </row>
     <row r="866" spans="10:17">
       <c r="J866" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K866">
         <v>0</v>
@@ -33152,7 +33104,7 @@
     </row>
     <row r="867" spans="10:17">
       <c r="J867" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K867">
         <v>0</v>
@@ -33178,7 +33130,7 @@
     </row>
     <row r="868" spans="10:17">
       <c r="J868" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K868">
         <v>0</v>
@@ -33204,7 +33156,7 @@
     </row>
     <row r="869" spans="10:17">
       <c r="J869" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K869">
         <v>0</v>
@@ -33230,7 +33182,7 @@
     </row>
     <row r="870" spans="10:17">
       <c r="J870" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K870">
         <v>0</v>
@@ -33256,7 +33208,7 @@
     </row>
     <row r="871" spans="10:17">
       <c r="J871" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K871">
         <v>0</v>
@@ -33282,7 +33234,7 @@
     </row>
     <row r="872" spans="10:17">
       <c r="J872" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K872">
         <v>0</v>
@@ -33308,7 +33260,7 @@
     </row>
     <row r="873" spans="10:17">
       <c r="J873" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K873">
         <v>0</v>
@@ -33334,7 +33286,7 @@
     </row>
     <row r="874" spans="10:17">
       <c r="J874" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K874">
         <v>0</v>
@@ -33360,7 +33312,7 @@
     </row>
     <row r="875" spans="10:17">
       <c r="J875" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K875">
         <v>0</v>
@@ -33386,7 +33338,7 @@
     </row>
     <row r="876" spans="10:17">
       <c r="J876" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K876">
         <v>0</v>
@@ -33412,7 +33364,7 @@
     </row>
     <row r="877" spans="10:17">
       <c r="J877" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K877">
         <v>0</v>
@@ -33438,7 +33390,7 @@
     </row>
     <row r="878" spans="10:17">
       <c r="J878" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K878">
         <v>0</v>
@@ -33464,7 +33416,7 @@
     </row>
     <row r="879" spans="10:17">
       <c r="J879" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K879">
         <v>0</v>
@@ -33490,7 +33442,7 @@
     </row>
     <row r="880" spans="10:17">
       <c r="J880" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K880">
         <v>0</v>
@@ -33516,7 +33468,7 @@
     </row>
     <row r="881" spans="10:17">
       <c r="J881" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K881">
         <v>0</v>
